--- a/Oats/IndexFiles/RadiationAndTempIndex.xlsx
+++ b/Oats/IndexFiles/RadiationAndTempIndex.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Rainshelter\Oats 2017-2018\LoggedData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\CropWaterAnalysis\Oats\IndexFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="15075" windowHeight="13740"/>
+    <workbookView xWindow="480" yWindow="348" windowWidth="15072" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor positions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="247">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -538,9 +538,6 @@
     <t>LinPAR_Avg(15)</t>
   </si>
   <si>
-    <t>Column Header</t>
-  </si>
-  <si>
     <t>TS</t>
   </si>
   <si>
@@ -628,9 +625,6 @@
     <t>BelowCanopyPAR</t>
   </si>
   <si>
-    <t>AboveCanopyPAR</t>
-  </si>
-  <si>
     <t>BatteryVoltage</t>
   </si>
   <si>
@@ -731,6 +725,45 @@
   </si>
   <si>
     <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>ColumnHeader</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Excess</t>
+  </si>
+  <si>
+    <t>AboveCanopyPAR1</t>
+  </si>
+  <si>
+    <t>AboveCanopyPAR2</t>
+  </si>
+  <si>
+    <t>AboveCanopyPAR3</t>
   </si>
 </sst>
 </file>
@@ -800,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -810,6 +843,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,43 +1155,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>190</v>
       </c>
-      <c r="D1" t="s">
-        <v>191</v>
-      </c>
       <c r="E1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L1">
         <v>2</v>
@@ -1168,337 +1206,337 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
         <v>177</v>
       </c>
-      <c r="C7" t="s">
-        <v>178</v>
-      </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
         <v>180</v>
       </c>
-      <c r="C9" t="s">
-        <v>181</v>
-      </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E13">
         <f>100+L13</f>
@@ -1508,34 +1546,34 @@
         <f t="shared" ref="F13:F44" si="0">VLOOKUP($E13,Layout,L$1,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="str">
         <f t="shared" ref="G13:G44" si="1">VLOOKUP($E13,Layout,M$1,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="str">
         <f t="shared" ref="H13:H44" si="2">VLOOKUP($E13,Layout,N$1,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="str">
         <f t="shared" ref="I13:I44" si="3">VLOOKUP($E13,Layout,O$1,FALSE)</f>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E77" si="4">100+L14</f>
@@ -1545,34 +1583,34 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15">
         <f t="shared" si="4"/>
@@ -1582,34 +1620,34 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="str">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16">
         <f t="shared" si="4"/>
@@ -1619,34 +1657,34 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17">
         <f t="shared" si="4"/>
@@ -1656,34 +1694,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="str">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E18">
         <f t="shared" si="4"/>
@@ -1693,34 +1731,34 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="str">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19">
         <f t="shared" si="4"/>
@@ -1730,34 +1768,34 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="str">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20">
         <f t="shared" si="4"/>
@@ -1767,34 +1805,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="str">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21">
         <f t="shared" si="4"/>
@@ -1804,34 +1842,34 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="str">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22">
         <f t="shared" si="4"/>
@@ -1841,34 +1879,34 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="str">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L22">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
@@ -1878,34 +1916,34 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
@@ -1915,34 +1953,34 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="str">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L24">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
@@ -1952,34 +1990,34 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L25">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
@@ -1989,34 +2027,34 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="str">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L26">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
@@ -2026,34 +2064,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L27">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
@@ -2063,34 +2101,34 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="str">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L28">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
@@ -2100,34 +2138,34 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="str">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L29">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
@@ -2137,34 +2175,34 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L30">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
@@ -2174,34 +2212,34 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="str">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L31">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
@@ -2211,34 +2249,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="str">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L32">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
@@ -2248,34 +2286,34 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L33">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
@@ -2285,34 +2323,34 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="str">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L34">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
@@ -2322,34 +2360,34 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="str">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L35">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
@@ -2359,34 +2397,34 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L36">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
@@ -2396,34 +2434,34 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="str">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L37">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E38">
         <f t="shared" si="4"/>
@@ -2433,34 +2471,34 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E39">
         <f t="shared" si="4"/>
@@ -2470,34 +2508,34 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="str">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E40">
         <f t="shared" si="4"/>
@@ -2507,34 +2545,34 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="str">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
@@ -2544,34 +2582,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="str">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L41">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E42">
         <f t="shared" si="4"/>
@@ -2581,34 +2619,34 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="str">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E43">
         <f t="shared" si="4"/>
@@ -2618,34 +2656,34 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="str">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L43">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E44">
         <f t="shared" si="4"/>
@@ -2655,34 +2693,34 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="str">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L44">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E45">
         <f t="shared" si="4"/>
@@ -2692,34 +2730,34 @@
         <f t="shared" ref="F45:F76" si="5">VLOOKUP($E45,Layout,L$1,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="str">
         <f t="shared" ref="G45:G76" si="6">VLOOKUP($E45,Layout,M$1,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="str">
         <f t="shared" ref="H45:H76" si="7">VLOOKUP($E45,Layout,N$1,FALSE)</f>
         <v>320</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="str">
         <f t="shared" ref="I45:I76" si="8">VLOOKUP($E45,Layout,O$1,FALSE)</f>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L45">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E46">
         <f t="shared" si="4"/>
@@ -2729,34 +2767,34 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="str">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L46">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E47">
         <f t="shared" si="4"/>
@@ -2766,34 +2804,34 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="str">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E48">
         <f t="shared" si="4"/>
@@ -2803,34 +2841,34 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="str">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L48">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E49">
         <f t="shared" si="4"/>
@@ -2840,34 +2878,34 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="str">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L49">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E50">
         <f t="shared" si="4"/>
@@ -2877,34 +2915,34 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="str">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L50">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E51">
         <f t="shared" si="4"/>
@@ -2914,34 +2952,34 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="str">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L51">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E52">
         <f t="shared" si="4"/>
@@ -2951,34 +2989,34 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="str">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L52">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E53">
         <f t="shared" si="4"/>
@@ -2988,34 +3026,34 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="str">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L53">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E54">
         <f t="shared" si="4"/>
@@ -3025,34 +3063,34 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="str">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L54">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E55">
         <f t="shared" si="4"/>
@@ -3062,34 +3100,34 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="str">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L55">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E56">
         <f t="shared" si="4"/>
@@ -3099,34 +3137,34 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="str">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L56">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E57">
         <f t="shared" si="4"/>
@@ -3136,34 +3174,34 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="str">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L57">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E58">
         <f t="shared" si="4"/>
@@ -3173,34 +3211,34 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="str">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L58">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E59">
         <f t="shared" si="4"/>
@@ -3210,34 +3248,34 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="str">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L59">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E60">
         <f t="shared" si="4"/>
@@ -3247,34 +3285,34 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="str">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L60">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E61">
         <f t="shared" si="4"/>
@@ -3284,34 +3322,34 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="str">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L61">
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E62">
         <f t="shared" si="4"/>
@@ -3321,34 +3359,34 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="str">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E63">
         <f t="shared" si="4"/>
@@ -3358,34 +3396,34 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="str">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E64">
         <f t="shared" si="4"/>
@@ -3395,34 +3433,34 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="str">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E65">
         <f t="shared" si="4"/>
@@ -3432,34 +3470,34 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="str">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66">
         <f t="shared" si="4"/>
@@ -3469,34 +3507,34 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="str">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L66">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E67">
         <f t="shared" si="4"/>
@@ -3506,34 +3544,34 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="str">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L67">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E68">
         <f t="shared" si="4"/>
@@ -3543,34 +3581,34 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="str">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L68">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E69">
         <f t="shared" si="4"/>
@@ -3580,34 +3618,34 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="str">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L69">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E70">
         <f t="shared" si="4"/>
@@ -3617,34 +3655,34 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G70">
+      <c r="G70" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="str">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L70">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71">
         <f t="shared" si="4"/>
@@ -3654,34 +3692,34 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="str">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L71">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E72">
         <f t="shared" si="4"/>
@@ -3691,34 +3729,34 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="str">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L72">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E73">
         <f t="shared" si="4"/>
@@ -3728,34 +3766,34 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="str">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L73">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E74">
         <f t="shared" si="4"/>
@@ -3765,34 +3803,34 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G74">
+      <c r="G74" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="str">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L74">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E75">
         <f t="shared" si="4"/>
@@ -3802,34 +3840,34 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G75">
+      <c r="G75" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="str">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L75">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E76">
         <f t="shared" si="4"/>
@@ -3839,34 +3877,34 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="G76">
+      <c r="G76" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="str">
         <f t="shared" si="7"/>
         <v>320</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L76">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E77">
         <f t="shared" si="4"/>
@@ -3876,34 +3914,34 @@
         <f t="shared" ref="F77:F108" si="9">VLOOKUP($E77,Layout,L$1,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="str">
         <f t="shared" ref="G77:G108" si="10">VLOOKUP($E77,Layout,M$1,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="str">
         <f t="shared" ref="H77:H108" si="11">VLOOKUP($E77,Layout,N$1,FALSE)</f>
         <v>125</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="str">
         <f t="shared" ref="I77:I108" si="12">VLOOKUP($E77,Layout,O$1,FALSE)</f>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L77">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E78">
         <f t="shared" ref="E78:E141" si="13">100+L78</f>
@@ -3913,34 +3951,34 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="str">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="str">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L78">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E79">
         <f t="shared" si="13"/>
@@ -3950,34 +3988,34 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="str">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="str">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L79">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E80">
         <f t="shared" si="13"/>
@@ -3987,34 +4025,34 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="str">
         <f t="shared" si="11"/>
         <v>320</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L80">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E81">
         <f t="shared" si="13"/>
@@ -4024,34 +4062,34 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="G81">
+      <c r="G81" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="str">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L81">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E82">
         <f t="shared" si="13"/>
@@ -4061,34 +4099,34 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G82">
+      <c r="G82" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="str">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L82">
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E83">
         <f t="shared" si="13"/>
@@ -4098,34 +4136,34 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="G83">
+      <c r="G83" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="str">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L83">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E84">
         <f t="shared" si="13"/>
@@ -4135,34 +4173,34 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="G84">
+      <c r="G84" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="str">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L84">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E85">
         <f t="shared" si="13"/>
@@ -4172,34 +4210,34 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="G85">
+      <c r="G85" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="str">
         <f t="shared" si="11"/>
         <v>320</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L85">
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E86">
         <f t="shared" si="13"/>
@@ -4209,34 +4247,34 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="str">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E87">
         <f t="shared" si="13"/>
@@ -4246,34 +4284,34 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="G87">
+      <c r="G87" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="str">
         <f t="shared" si="11"/>
         <v>320</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E88">
         <f t="shared" si="13"/>
@@ -4283,34 +4321,34 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="G88">
+      <c r="G88" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="str">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L88">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E89">
         <f t="shared" si="13"/>
@@ -4320,34 +4358,34 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="G89">
+      <c r="G89" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="str">
         <f t="shared" si="11"/>
         <v>320</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L89">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E90">
         <f t="shared" si="13"/>
@@ -4357,34 +4395,34 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G90">
+      <c r="G90" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="str">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L90">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E91">
         <f t="shared" si="13"/>
@@ -4394,34 +4432,34 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="G91">
+      <c r="G91" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="str">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L91">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E92">
         <f t="shared" si="13"/>
@@ -4431,34 +4469,34 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="G92">
+      <c r="G92" t="str">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="str">
         <f t="shared" si="11"/>
         <v>320</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L92">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E93">
         <f t="shared" si="13"/>
@@ -4468,34 +4506,34 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G93">
+      <c r="G93" t="str">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="str">
         <f t="shared" si="11"/>
         <v>320</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L93">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E94">
         <f t="shared" si="13"/>
@@ -4505,34 +4543,34 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="G94">
+      <c r="G94" t="str">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="str">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L94">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E95">
         <f t="shared" si="13"/>
@@ -4542,34 +4580,34 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="G95">
+      <c r="G95" t="str">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="str">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L95">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E96">
         <f t="shared" si="13"/>
@@ -4579,34 +4617,34 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="G96">
+      <c r="G96" t="str">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="str">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L96">
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E97">
         <f t="shared" si="13"/>
@@ -4616,34 +4654,34 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="G97">
+      <c r="G97" t="str">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="str">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L97">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E98">
         <f t="shared" si="13"/>
@@ -4653,34 +4691,34 @@
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="G98">
+      <c r="G98" t="str">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="str">
         <f t="shared" si="11"/>
         <v>320</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L98">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E99">
         <f t="shared" si="13"/>
@@ -4690,34 +4728,34 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="G99">
+      <c r="G99" t="str">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="str">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L99">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E100">
         <f t="shared" si="13"/>
@@ -4727,34 +4765,34 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="G100">
+      <c r="G100" t="str">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="str">
         <f t="shared" si="11"/>
         <v>320</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L100">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E101">
         <f t="shared" si="13"/>
@@ -4764,34 +4802,34 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G101">
+      <c r="G101" t="str">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="str">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L101">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D102" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E102">
         <f t="shared" si="13"/>
@@ -4801,34 +4839,34 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="G102">
+      <c r="G102" t="str">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="str">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L102">
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E103">
         <f t="shared" si="13"/>
@@ -4838,34 +4876,34 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="G103">
+      <c r="G103" t="str">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="str">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L103">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E104">
         <f t="shared" si="13"/>
@@ -4875,34 +4913,34 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="G104">
+      <c r="G104" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="str">
         <f t="shared" si="11"/>
         <v>320</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L104">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E105">
         <f t="shared" si="13"/>
@@ -4912,34 +4950,34 @@
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="G105">
+      <c r="G105" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="str">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L105">
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E106">
         <f t="shared" si="13"/>
@@ -4949,34 +4987,34 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G106">
+      <c r="G106" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="str">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L106">
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E107">
         <f t="shared" si="13"/>
@@ -4986,34 +5024,34 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="G107">
+      <c r="G107" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="str">
         <f t="shared" si="11"/>
         <v>125</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L107">
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E108">
         <f t="shared" si="13"/>
@@ -5023,34 +5061,34 @@
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="G108">
+      <c r="G108" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="str">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L108">
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E109">
         <f t="shared" si="13"/>
@@ -5060,34 +5098,34 @@
         <f t="shared" ref="F109:F140" si="14">VLOOKUP($E109,Layout,L$1,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="G109">
+      <c r="G109" t="str">
         <f t="shared" ref="G109:G140" si="15">VLOOKUP($E109,Layout,M$1,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="str">
         <f t="shared" ref="H109:H140" si="16">VLOOKUP($E109,Layout,N$1,FALSE)</f>
         <v>320</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="str">
         <f t="shared" ref="I109:I140" si="17">VLOOKUP($E109,Layout,O$1,FALSE)</f>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L109">
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E110">
         <f t="shared" si="13"/>
@@ -5111,18 +5149,18 @@
       </c>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D111" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E111">
         <f t="shared" si="13"/>
@@ -5146,18 +5184,18 @@
       </c>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E112">
         <f t="shared" si="13"/>
@@ -5181,18 +5219,18 @@
       </c>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D113" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E113">
         <f t="shared" si="13"/>
@@ -5216,18 +5254,18 @@
       </c>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E114">
         <f t="shared" si="13"/>
@@ -5251,18 +5289,18 @@
       </c>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E115">
         <f t="shared" si="13"/>
@@ -5286,18 +5324,18 @@
       </c>
       <c r="L115" s="4"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E116">
         <f t="shared" si="13"/>
@@ -5321,18 +5359,18 @@
       </c>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C117" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E117">
         <f t="shared" si="13"/>
@@ -5356,18 +5394,18 @@
       </c>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E118">
         <f t="shared" si="13"/>
@@ -5391,18 +5429,18 @@
       </c>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E119">
         <f t="shared" si="13"/>
@@ -5426,18 +5464,18 @@
       </c>
       <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E120">
         <f t="shared" si="13"/>
@@ -5461,18 +5499,18 @@
       </c>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D121" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E121">
         <f t="shared" si="13"/>
@@ -5496,18 +5534,18 @@
       </c>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E122">
         <f t="shared" si="13"/>
@@ -5531,18 +5569,18 @@
       </c>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D123" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E123">
         <f t="shared" si="13"/>
@@ -5566,18 +5604,18 @@
       </c>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D124" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E124">
         <f t="shared" si="13"/>
@@ -5601,18 +5639,18 @@
       </c>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D125" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E125">
         <f t="shared" si="13"/>
@@ -5636,18 +5674,18 @@
       </c>
       <c r="L125" s="4"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D126" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E126">
         <f t="shared" si="13"/>
@@ -5671,18 +5709,18 @@
       </c>
       <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D127" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E127">
         <f t="shared" si="13"/>
@@ -5706,18 +5744,18 @@
       </c>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C128" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D128" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E128">
         <f t="shared" si="13"/>
@@ -5741,18 +5779,18 @@
       </c>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D129" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E129">
         <f t="shared" si="13"/>
@@ -5776,18 +5814,18 @@
       </c>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C130" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E130">
         <f t="shared" si="13"/>
@@ -5811,18 +5849,18 @@
       </c>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E131">
         <f t="shared" si="13"/>
@@ -5846,18 +5884,18 @@
       </c>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C132" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D132" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E132">
         <f t="shared" si="13"/>
@@ -5881,18 +5919,18 @@
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E133">
         <f t="shared" si="13"/>
@@ -5916,18 +5954,18 @@
       </c>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D134" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E134">
         <f t="shared" si="13"/>
@@ -5951,18 +5989,18 @@
       </c>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D135" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E135">
         <f t="shared" si="13"/>
@@ -5986,18 +6024,18 @@
       </c>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D136" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E136">
         <f t="shared" si="13"/>
@@ -6021,18 +6059,18 @@
       </c>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D137" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E137">
         <f t="shared" si="13"/>
@@ -6056,18 +6094,18 @@
       </c>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D138" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E138">
         <f t="shared" si="13"/>
@@ -6091,18 +6129,18 @@
       </c>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D139" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E139">
         <f t="shared" si="13"/>
@@ -6126,18 +6164,18 @@
       </c>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D140" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E140">
         <f t="shared" si="13"/>
@@ -6161,18 +6199,18 @@
       </c>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E141">
         <f t="shared" si="13"/>
@@ -6196,18 +6234,18 @@
       </c>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D142" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E142">
         <f t="shared" ref="E142:E181" si="22">100+L142</f>
@@ -6231,18 +6269,18 @@
       </c>
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D143" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E143">
         <f t="shared" si="22"/>
@@ -6266,18 +6304,18 @@
       </c>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D144" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E144">
         <f t="shared" si="22"/>
@@ -6301,18 +6339,18 @@
       </c>
       <c r="L144" s="4"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C145" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D145" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E145">
         <f t="shared" si="22"/>
@@ -6336,18 +6374,18 @@
       </c>
       <c r="L145" s="4"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D146" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E146">
         <f t="shared" si="22"/>
@@ -6357,34 +6395,34 @@
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="G146">
+      <c r="G146" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="H146">
+      <c r="H146" t="str">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="I146">
+      <c r="I146" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L146" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C147" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D147" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E147">
         <f t="shared" si="22"/>
@@ -6394,34 +6432,34 @@
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="G147">
+      <c r="G147" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="H147">
+      <c r="H147" t="str">
         <f t="shared" si="20"/>
         <v>320</v>
       </c>
-      <c r="I147">
+      <c r="I147" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L147" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D148" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E148">
         <f t="shared" si="22"/>
@@ -6431,34 +6469,34 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="G148">
+      <c r="G148" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="H148">
+      <c r="H148" t="str">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="I148">
+      <c r="I148" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L148" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C149" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D149" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E149">
         <f t="shared" si="22"/>
@@ -6468,34 +6506,34 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G149">
+      <c r="G149" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="H149">
+      <c r="H149" t="str">
         <f t="shared" si="20"/>
         <v>125</v>
       </c>
-      <c r="I149">
+      <c r="I149" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L149" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C150" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E150">
         <f t="shared" si="22"/>
@@ -6505,34 +6543,34 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G150">
+      <c r="G150" t="str">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="H150">
+      <c r="H150" t="str">
         <f t="shared" si="20"/>
         <v>320</v>
       </c>
-      <c r="I150">
+      <c r="I150" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L150" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D151" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E151">
         <f t="shared" si="22"/>
@@ -6542,34 +6580,34 @@
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="G151">
+      <c r="G151" t="str">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="H151">
+      <c r="H151" t="str">
         <f t="shared" si="20"/>
         <v>125</v>
       </c>
-      <c r="I151">
+      <c r="I151" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L151" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D152" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E152">
         <f t="shared" si="22"/>
@@ -6579,34 +6617,34 @@
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="G152">
+      <c r="G152" t="str">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="H152">
+      <c r="H152" t="str">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="I152">
+      <c r="I152" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L152" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C153" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E153">
         <f t="shared" si="22"/>
@@ -6616,34 +6654,34 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="G153">
+      <c r="G153" t="str">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="H153">
+      <c r="H153" t="str">
         <f t="shared" si="20"/>
         <v>125</v>
       </c>
-      <c r="I153">
+      <c r="I153" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L153" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C154" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D154" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E154">
         <f t="shared" si="22"/>
@@ -6653,34 +6691,34 @@
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="G154">
+      <c r="G154" t="str">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="H154">
+      <c r="H154" t="str">
         <f t="shared" si="20"/>
         <v>320</v>
       </c>
-      <c r="I154">
+      <c r="I154" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L154" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D155" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E155">
         <f t="shared" si="22"/>
@@ -6690,34 +6728,34 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="G155">
+      <c r="G155" t="str">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="H155">
+      <c r="H155" t="str">
         <f t="shared" si="20"/>
         <v>320</v>
       </c>
-      <c r="I155">
+      <c r="I155" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L155" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D156" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E156">
         <f t="shared" si="22"/>
@@ -6727,34 +6765,34 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G156">
+      <c r="G156" t="str">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="H156">
+      <c r="H156" t="str">
         <f t="shared" si="20"/>
         <v>125</v>
       </c>
-      <c r="I156">
+      <c r="I156" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L156" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C157" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D157" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E157">
         <f t="shared" si="22"/>
@@ -6764,34 +6802,34 @@
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="G157">
+      <c r="G157" t="str">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="H157">
+      <c r="H157" t="str">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="I157">
+      <c r="I157" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L157" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C158" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D158" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E158">
         <f t="shared" si="22"/>
@@ -6801,34 +6839,34 @@
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="G158">
+      <c r="G158" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="H158">
+      <c r="H158" t="str">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="I158">
+      <c r="I158" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L158" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D159" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E159">
         <f t="shared" si="22"/>
@@ -6838,34 +6876,34 @@
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="G159">
+      <c r="G159" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="H159">
+      <c r="H159" t="str">
         <f t="shared" si="20"/>
         <v>320</v>
       </c>
-      <c r="I159">
+      <c r="I159" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L159" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C160" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D160" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E160">
         <f t="shared" si="22"/>
@@ -6875,34 +6913,34 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="G160">
+      <c r="G160" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="H160">
+      <c r="H160" t="str">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="I160">
+      <c r="I160" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L160" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C161" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D161" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E161">
         <f t="shared" si="22"/>
@@ -6912,34 +6950,34 @@
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="G161">
+      <c r="G161" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="H161">
+      <c r="H161" t="str">
         <f t="shared" si="20"/>
         <v>320</v>
       </c>
-      <c r="I161">
+      <c r="I161" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L161" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C162" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D162" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E162">
         <f t="shared" si="22"/>
@@ -6949,34 +6987,34 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G162">
+      <c r="G162" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="H162">
+      <c r="H162" t="str">
         <f t="shared" si="20"/>
         <v>125</v>
       </c>
-      <c r="I162">
+      <c r="I162" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L162" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C163" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D163" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E163">
         <f t="shared" si="22"/>
@@ -6986,34 +7024,34 @@
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="G163">
+      <c r="G163" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="H163">
+      <c r="H163" t="str">
         <f t="shared" si="20"/>
         <v>125</v>
       </c>
-      <c r="I163">
+      <c r="I163" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L163" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E164">
         <f t="shared" si="22"/>
@@ -7023,34 +7061,34 @@
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="G164">
+      <c r="G164" t="str">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="H164">
+      <c r="H164" t="str">
         <f t="shared" si="20"/>
         <v>320</v>
       </c>
-      <c r="I164">
+      <c r="I164" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L164" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C165" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D165" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E165">
         <f t="shared" si="22"/>
@@ -7060,34 +7098,34 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="G165">
+      <c r="G165" t="str">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="H165">
+      <c r="H165" t="str">
         <f t="shared" si="20"/>
         <v>320</v>
       </c>
-      <c r="I165">
+      <c r="I165" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L165" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D166" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E166">
         <f t="shared" si="22"/>
@@ -7097,34 +7135,34 @@
         <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="G166">
+      <c r="G166" t="str">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="H166">
+      <c r="H166" t="str">
         <f t="shared" si="20"/>
         <v>125</v>
       </c>
-      <c r="I166">
+      <c r="I166" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L166" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C167" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E167">
         <f t="shared" si="22"/>
@@ -7134,34 +7172,34 @@
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="G167">
+      <c r="G167" t="str">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="H167">
+      <c r="H167" t="str">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="I167">
+      <c r="I167" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L167" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D168" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E168">
         <f t="shared" si="22"/>
@@ -7171,34 +7209,34 @@
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="G168">
+      <c r="G168" t="str">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="H168">
+      <c r="H168" t="str">
         <f t="shared" si="20"/>
         <v>125</v>
       </c>
-      <c r="I168">
+      <c r="I168" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L168" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D169" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E169">
         <f t="shared" si="22"/>
@@ -7208,34 +7246,34 @@
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="G169">
+      <c r="G169" t="str">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="H169">
+      <c r="H169" t="str">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="I169">
+      <c r="I169" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L169" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C170" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D170" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E170">
         <f t="shared" si="22"/>
@@ -7245,34 +7283,34 @@
         <f t="shared" ref="F170:F181" si="23">VLOOKUP($E170,Layout,L$1,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="G170">
+      <c r="G170" t="str">
         <f t="shared" ref="G170:G181" si="24">VLOOKUP($E170,Layout,M$1,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="H170">
+      <c r="H170" t="str">
         <f t="shared" ref="H170:H181" si="25">VLOOKUP($E170,Layout,N$1,FALSE)</f>
         <v>320</v>
       </c>
-      <c r="I170">
+      <c r="I170" t="str">
         <f t="shared" ref="I170:I181" si="26">VLOOKUP($E170,Layout,O$1,FALSE)</f>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L170" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D171" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E171">
         <f t="shared" si="22"/>
@@ -7282,34 +7320,34 @@
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="G171">
+      <c r="G171" t="str">
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="H171">
+      <c r="H171" t="str">
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="I171">
+      <c r="I171" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L171" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D172" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E172">
         <f t="shared" si="22"/>
@@ -7319,34 +7357,34 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="G172">
+      <c r="G172" t="str">
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="H172">
+      <c r="H172" t="str">
         <f t="shared" si="25"/>
         <v>320</v>
       </c>
-      <c r="I172">
+      <c r="I172" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L172" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B173" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D173" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E173">
         <f t="shared" si="22"/>
@@ -7356,34 +7394,34 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="G173">
+      <c r="G173" t="str">
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="H173">
+      <c r="H173" t="str">
         <f t="shared" si="25"/>
         <v>125</v>
       </c>
-      <c r="I173">
+      <c r="I173" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L173" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B174" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D174" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E174">
         <f t="shared" si="22"/>
@@ -7393,34 +7431,34 @@
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="G174">
+      <c r="G174" t="str">
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="H174">
+      <c r="H174" t="str">
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="I174">
+      <c r="I174" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L174" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B175" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D175" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E175">
         <f t="shared" si="22"/>
@@ -7430,34 +7468,34 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="G175">
+      <c r="G175" t="str">
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="H175">
+      <c r="H175" t="str">
         <f t="shared" si="25"/>
         <v>125</v>
       </c>
-      <c r="I175">
+      <c r="I175" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L175" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B176" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D176" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E176">
         <f t="shared" si="22"/>
@@ -7467,34 +7505,34 @@
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="G176">
+      <c r="G176" t="str">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="H176">
+      <c r="H176" t="str">
         <f t="shared" si="25"/>
         <v>320</v>
       </c>
-      <c r="I176">
+      <c r="I176" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L176" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B177" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D177" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E177">
         <f t="shared" si="22"/>
@@ -7504,34 +7542,34 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="G177">
+      <c r="G177" t="str">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="H177">
+      <c r="H177" t="str">
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="I177">
+      <c r="I177" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L177" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B178" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C178" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D178" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E178">
         <f t="shared" si="22"/>
@@ -7541,34 +7579,34 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="G178">
+      <c r="G178" t="str">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="H178">
+      <c r="H178" t="str">
         <f t="shared" si="25"/>
         <v>125</v>
       </c>
-      <c r="I178">
+      <c r="I178" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L178" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B179" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C179" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D179" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E179">
         <f t="shared" si="22"/>
@@ -7578,34 +7616,34 @@
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="G179">
+      <c r="G179" t="str">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="H179">
+      <c r="H179" t="str">
         <f t="shared" si="25"/>
         <v>125</v>
       </c>
-      <c r="I179">
+      <c r="I179" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L179" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B180" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C180" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D180" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E180">
         <f t="shared" si="22"/>
@@ -7615,34 +7653,34 @@
         <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="G180">
+      <c r="G180" t="str">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="H180">
+      <c r="H180" t="str">
         <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="I180">
+      <c r="I180" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Normal</v>
       </c>
       <c r="L180" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B181" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C181" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D181" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E181">
         <f t="shared" si="22"/>
@@ -7652,107 +7690,107 @@
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="G181">
+      <c r="G181" t="str">
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="H181">
+      <c r="H181" t="str">
         <f t="shared" si="25"/>
         <v>320</v>
       </c>
-      <c r="I181">
+      <c r="I181" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Excess</v>
       </c>
       <c r="L181" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>230</v>
+      </c>
+      <c r="B182" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" t="s">
+        <v>174</v>
+      </c>
+      <c r="D182" t="s">
+        <v>244</v>
+      </c>
+      <c r="E182" t="s">
+        <v>211</v>
+      </c>
+      <c r="F182" t="s">
+        <v>211</v>
+      </c>
+      <c r="G182" t="s">
+        <v>211</v>
+      </c>
+      <c r="H182" t="s">
+        <v>211</v>
+      </c>
+      <c r="I182" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>231</v>
+      </c>
+      <c r="B183" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183" t="s">
+        <v>174</v>
+      </c>
+      <c r="D183" t="s">
+        <v>245</v>
+      </c>
+      <c r="E183" t="s">
+        <v>211</v>
+      </c>
+      <c r="F183" t="s">
+        <v>211</v>
+      </c>
+      <c r="G183" t="s">
+        <v>211</v>
+      </c>
+      <c r="H183" t="s">
+        <v>211</v>
+      </c>
+      <c r="I183" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>232</v>
       </c>
-      <c r="B182" t="s">
-        <v>188</v>
-      </c>
-      <c r="C182" t="s">
-        <v>175</v>
-      </c>
-      <c r="D182" t="s">
-        <v>201</v>
-      </c>
-      <c r="E182" t="s">
-        <v>213</v>
-      </c>
-      <c r="F182" t="s">
-        <v>213</v>
-      </c>
-      <c r="G182" t="s">
-        <v>213</v>
-      </c>
-      <c r="H182" t="s">
-        <v>213</v>
-      </c>
-      <c r="I182" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>233</v>
-      </c>
-      <c r="B183" t="s">
-        <v>188</v>
-      </c>
-      <c r="C183" t="s">
-        <v>175</v>
-      </c>
-      <c r="D183" t="s">
-        <v>201</v>
-      </c>
-      <c r="E183" t="s">
-        <v>213</v>
-      </c>
-      <c r="F183" t="s">
-        <v>213</v>
-      </c>
-      <c r="G183" t="s">
-        <v>213</v>
-      </c>
-      <c r="H183" t="s">
-        <v>213</v>
-      </c>
-      <c r="I183" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>234</v>
-      </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D184" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="E184" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F184" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G184" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H184" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I184" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -7765,362 +7803,434 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>101</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>102</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>103</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>104</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>105</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>106</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>107</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>108</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>109</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>110</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>111</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>112</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>113</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>114</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>115</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>116</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>117</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>118</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>119</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>120</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>121</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>122</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>123</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>124</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>320</v>
+      <c r="C25" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Oats/IndexFiles/RadiationAndTempIndex.xlsx
+++ b/Oats/IndexFiles/RadiationAndTempIndex.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="251">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -764,6 +764,18 @@
   </si>
   <si>
     <t>AboveCanopyPAR3</t>
+  </si>
+  <si>
+    <t>AlbedoUp_Avg</t>
+  </si>
+  <si>
+    <t>AlbedoDown_Avg</t>
+  </si>
+  <si>
+    <t>GlobalRadn</t>
+  </si>
+  <si>
+    <t>ReflectedRadn</t>
   </si>
 </sst>
 </file>
@@ -833,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -848,6 +860,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O184"/>
+  <dimension ref="A1:O186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,8 +1541,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="B13" t="s">
         <v>184</v>
@@ -1536,47 +1551,42 @@
         <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="E13">
-        <f>100+L13</f>
         <v>101</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F44" si="0">VLOOKUP($E13,Layout,L$1,FALSE)</f>
+        <f t="shared" ref="F13:F14" si="0">VLOOKUP($E13,Layout,L$1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G44" si="1">VLOOKUP($E13,Layout,M$1,FALSE)</f>
+        <f t="shared" ref="G13:G14" si="1">VLOOKUP($E13,Layout,M$1,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ref="H13:H44" si="2">VLOOKUP($E13,Layout,N$1,FALSE)</f>
+        <f t="shared" ref="H13:H14" si="2">VLOOKUP($E13,Layout,N$1,FALSE)</f>
         <v>80</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ref="I13:I44" si="3">VLOOKUP($E13,Layout,O$1,FALSE)</f>
-        <v>Normal</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+        <f t="shared" ref="I13:I14" si="3">VLOOKUP($E13,Layout,O$1,FALSE)</f>
+        <v>Normal</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
         <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E77" si="4">100+L14</f>
         <v>101</v>
       </c>
       <c r="F14">
@@ -1595,50 +1605,47 @@
         <f t="shared" si="3"/>
         <v>Normal</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
         <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <f>100+L15</f>
+        <v>101</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="F15:F46" si="4">VLOOKUP($E15,Layout,L$1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G15:G46" si="5">VLOOKUP($E15,Layout,M$1,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="2"/>
-        <v>320</v>
+        <f t="shared" ref="H15:H46" si="6">VLOOKUP($E15,Layout,N$1,FALSE)</f>
+        <v>80</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
-        <v>Excess</v>
+        <f t="shared" ref="I15:I46" si="7">VLOOKUP($E15,Layout,O$1,FALSE)</f>
+        <v>Normal</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>175</v>
@@ -1650,32 +1657,32 @@
         <v>191</v>
       </c>
       <c r="E16">
+        <f t="shared" ref="E16:E79" si="8">100+L16</f>
+        <v>101</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="4"/>
-        <v>103</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v>Excess</v>
+        <f t="shared" si="7"/>
+        <v>Normal</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>175</v>
@@ -1687,32 +1694,32 @@
         <v>191</v>
       </c>
       <c r="E17">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="4"/>
-        <v>104</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="3"/>
-        <v>Normal</v>
+        <f t="shared" si="7"/>
+        <v>Excess</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>175</v>
@@ -1724,32 +1731,32 @@
         <v>191</v>
       </c>
       <c r="E18">
+        <f t="shared" si="8"/>
+        <v>103</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Excess</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>175</v>
@@ -1761,32 +1768,32 @@
         <v>191</v>
       </c>
       <c r="E19">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="4"/>
-        <v>106</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="6"/>
+        <v>320</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Normal</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>175</v>
@@ -1798,32 +1805,32 @@
         <v>191</v>
       </c>
       <c r="E20">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="4"/>
-        <v>107</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>320</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Excess</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>175</v>
@@ -1835,32 +1842,32 @@
         <v>191</v>
       </c>
       <c r="E21">
+        <f t="shared" si="8"/>
+        <v>106</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="2"/>
-        <v>320</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Normal</v>
       </c>
       <c r="L21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>175</v>
@@ -1872,32 +1879,32 @@
         <v>191</v>
       </c>
       <c r="E22">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="4"/>
-        <v>109</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="6"/>
+        <v>320</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Excess</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>175</v>
@@ -1909,32 +1916,32 @@
         <v>191</v>
       </c>
       <c r="E23">
+        <f t="shared" si="8"/>
+        <v>108</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="6"/>
+        <v>320</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Normal</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>175</v>
@@ -1946,32 +1953,32 @@
         <v>191</v>
       </c>
       <c r="E24">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="4"/>
-        <v>111</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="3"/>
-        <v>Normal</v>
+        <f t="shared" si="7"/>
+        <v>Excess</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>175</v>
@@ -1983,32 +1990,32 @@
         <v>191</v>
       </c>
       <c r="E25">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="4"/>
-        <v>112</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="3"/>
-        <v>Excess</v>
+        <f t="shared" si="7"/>
+        <v>Normal</v>
       </c>
       <c r="L25">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>175</v>
@@ -2020,32 +2027,32 @@
         <v>191</v>
       </c>
       <c r="E26">
+        <f t="shared" si="8"/>
+        <v>111</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="4"/>
-        <v>113</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>320</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Normal</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>175</v>
@@ -2057,32 +2064,32 @@
         <v>191</v>
       </c>
       <c r="E27">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="4"/>
-        <v>114</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Excess</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>175</v>
@@ -2094,32 +2101,32 @@
         <v>191</v>
       </c>
       <c r="E28">
+        <f t="shared" si="8"/>
+        <v>113</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="4"/>
-        <v>115</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="3"/>
-        <v>Excess</v>
+        <f t="shared" si="7"/>
+        <v>Normal</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>175</v>
@@ -2131,32 +2138,32 @@
         <v>191</v>
       </c>
       <c r="E29">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="4"/>
-        <v>116</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="3"/>
-        <v>Normal</v>
+        <f t="shared" si="7"/>
+        <v>Excess</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>175</v>
@@ -2168,32 +2175,32 @@
         <v>191</v>
       </c>
       <c r="E30">
+        <f t="shared" si="8"/>
+        <v>115</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="4"/>
-        <v>117</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="6"/>
+        <v>320</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="3"/>
-        <v>Normal</v>
+        <f t="shared" si="7"/>
+        <v>Excess</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>175</v>
@@ -2205,32 +2212,32 @@
         <v>191</v>
       </c>
       <c r="E31">
+        <f t="shared" si="8"/>
+        <v>116</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="4"/>
-        <v>118</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
       <c r="H31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="3"/>
-        <v>Excess</v>
+        <f t="shared" si="7"/>
+        <v>Normal</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>175</v>
@@ -2242,32 +2249,32 @@
         <v>191</v>
       </c>
       <c r="E32">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="4"/>
-        <v>119</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="2"/>
-        <v>320</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Normal</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>175</v>
@@ -2279,32 +2286,32 @@
         <v>191</v>
       </c>
       <c r="E33">
+        <f t="shared" si="8"/>
+        <v>118</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Excess</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>175</v>
@@ -2316,32 +2323,32 @@
         <v>191</v>
       </c>
       <c r="E34">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="4"/>
-        <v>121</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="6"/>
+        <v>320</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Normal</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>175</v>
@@ -2353,32 +2360,32 @@
         <v>191</v>
       </c>
       <c r="E35">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="4"/>
-        <v>122</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Excess</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
         <v>175</v>
@@ -2390,32 +2397,32 @@
         <v>191</v>
       </c>
       <c r="E36">
+        <f t="shared" si="8"/>
+        <v>121</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="4"/>
-        <v>123</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Normal</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
         <v>175</v>
@@ -2427,32 +2434,32 @@
         <v>191</v>
       </c>
       <c r="E37">
+        <f t="shared" si="8"/>
+        <v>122</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="4"/>
-        <v>124</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>320</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Excess</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
         <v>175</v>
@@ -2461,35 +2468,35 @@
         <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E38">
+        <f t="shared" si="8"/>
+        <v>123</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Normal</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>175</v>
@@ -2498,35 +2505,35 @@
         <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E39">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Excess</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>175</v>
@@ -2538,32 +2545,32 @@
         <v>192</v>
       </c>
       <c r="E40">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="4"/>
-        <v>103</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="3"/>
-        <v>Excess</v>
+        <f t="shared" si="7"/>
+        <v>Normal</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>175</v>
@@ -2575,32 +2582,32 @@
         <v>192</v>
       </c>
       <c r="E41">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="4"/>
-        <v>104</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="3"/>
-        <v>Normal</v>
+        <f t="shared" si="7"/>
+        <v>Excess</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>175</v>
@@ -2612,32 +2619,32 @@
         <v>192</v>
       </c>
       <c r="E42">
+        <f t="shared" si="8"/>
+        <v>103</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Excess</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
         <v>175</v>
@@ -2649,32 +2656,32 @@
         <v>192</v>
       </c>
       <c r="E43">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="4"/>
-        <v>106</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="2"/>
-        <v>125</v>
+        <f t="shared" si="6"/>
+        <v>320</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Normal</v>
       </c>
       <c r="L43">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
         <v>175</v>
@@ -2686,32 +2693,32 @@
         <v>192</v>
       </c>
       <c r="E44">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="4"/>
-        <v>107</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="2"/>
-        <v>320</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>Excess</v>
       </c>
       <c r="L44">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>175</v>
@@ -2723,32 +2730,32 @@
         <v>192</v>
       </c>
       <c r="E45">
+        <f t="shared" si="8"/>
+        <v>106</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-      <c r="F45">
-        <f t="shared" ref="F45:F76" si="5">VLOOKUP($E45,Layout,L$1,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" ref="G45:G76" si="6">VLOOKUP($E45,Layout,M$1,FALSE)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ref="H45:H76" si="7">VLOOKUP($E45,Layout,N$1,FALSE)</f>
-        <v>320</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" ref="I45:I76" si="8">VLOOKUP($E45,Layout,O$1,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>Normal</v>
       </c>
       <c r="L45">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
         <v>175</v>
@@ -2760,32 +2767,32 @@
         <v>192</v>
       </c>
       <c r="E46">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="4"/>
-        <v>109</v>
-      </c>
-      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G46" t="str">
+        <v>2</v>
+      </c>
+      <c r="H46" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H46" t="str">
+        <v>320</v>
+      </c>
+      <c r="I46" t="str">
         <f t="shared" si="7"/>
-        <v>125</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="8"/>
         <v>Excess</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>175</v>
@@ -2797,32 +2804,32 @@
         <v>192</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f t="shared" si="8"/>
+        <v>108</v>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" ref="F47:F78" si="9">VLOOKUP($E47,Layout,L$1,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G47:G78" si="10">VLOOKUP($E47,Layout,M$1,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f t="shared" ref="H47:H78" si="11">VLOOKUP($E47,Layout,N$1,FALSE)</f>
+        <v>320</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I47:I78" si="12">VLOOKUP($E47,Layout,O$1,FALSE)</f>
         <v>Normal</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
         <v>175</v>
@@ -2834,32 +2841,32 @@
         <v>192</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
-        <v>111</v>
+        <f t="shared" si="8"/>
+        <v>109</v>
       </c>
       <c r="F48">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="8"/>
-        <v>Normal</v>
+        <f t="shared" si="12"/>
+        <v>Excess</v>
       </c>
       <c r="L48">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
         <v>175</v>
@@ -2871,32 +2878,32 @@
         <v>192</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
-        <v>112</v>
+        <f t="shared" si="8"/>
+        <v>110</v>
       </c>
       <c r="F49">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="8"/>
-        <v>Excess</v>
+        <f t="shared" si="12"/>
+        <v>Normal</v>
       </c>
       <c r="L49">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>175</v>
@@ -2908,32 +2915,32 @@
         <v>192</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
-        <v>113</v>
+        <f t="shared" si="8"/>
+        <v>111</v>
       </c>
       <c r="F50">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="7"/>
-        <v>320</v>
+        <f t="shared" si="11"/>
+        <v>125</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Normal</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>175</v>
@@ -2945,32 +2952,32 @@
         <v>192</v>
       </c>
       <c r="E51">
-        <f t="shared" si="4"/>
-        <v>114</v>
+        <f t="shared" si="8"/>
+        <v>112</v>
       </c>
       <c r="F51">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Excess</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
         <v>175</v>
@@ -2982,32 +2989,32 @@
         <v>192</v>
       </c>
       <c r="E52">
-        <f t="shared" si="4"/>
-        <v>115</v>
+        <f t="shared" si="8"/>
+        <v>113</v>
       </c>
       <c r="F52">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>320</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="8"/>
-        <v>Excess</v>
+        <f t="shared" si="12"/>
+        <v>Normal</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
         <v>175</v>
@@ -3019,32 +3026,32 @@
         <v>192</v>
       </c>
       <c r="E53">
-        <f t="shared" si="4"/>
-        <v>116</v>
+        <f t="shared" si="8"/>
+        <v>114</v>
       </c>
       <c r="F53">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>80</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="8"/>
-        <v>Normal</v>
+        <f t="shared" si="12"/>
+        <v>Excess</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
         <v>175</v>
@@ -3056,32 +3063,32 @@
         <v>192</v>
       </c>
       <c r="E54">
-        <f t="shared" si="4"/>
-        <v>117</v>
+        <f t="shared" si="8"/>
+        <v>115</v>
       </c>
       <c r="F54">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f t="shared" si="11"/>
+        <v>320</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="8"/>
-        <v>Normal</v>
+        <f t="shared" si="12"/>
+        <v>Excess</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
         <v>175</v>
@@ -3093,32 +3100,32 @@
         <v>192</v>
       </c>
       <c r="E55">
-        <f t="shared" si="4"/>
-        <v>118</v>
+        <f t="shared" si="8"/>
+        <v>116</v>
       </c>
       <c r="F55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="G55" t="str">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
       <c r="H55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="8"/>
-        <v>Excess</v>
+        <f t="shared" si="12"/>
+        <v>Normal</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
         <v>175</v>
@@ -3130,32 +3137,32 @@
         <v>192</v>
       </c>
       <c r="E56">
-        <f t="shared" si="4"/>
-        <v>119</v>
+        <f t="shared" si="8"/>
+        <v>117</v>
       </c>
       <c r="F56">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="7"/>
-        <v>320</v>
+        <f t="shared" si="11"/>
+        <v>80</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Normal</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
         <v>175</v>
@@ -3167,32 +3174,32 @@
         <v>192</v>
       </c>
       <c r="E57">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <f t="shared" si="8"/>
+        <v>118</v>
       </c>
       <c r="F57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f t="shared" si="11"/>
+        <v>125</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Excess</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
         <v>175</v>
@@ -3204,32 +3211,32 @@
         <v>192</v>
       </c>
       <c r="E58">
-        <f t="shared" si="4"/>
-        <v>121</v>
+        <f t="shared" si="8"/>
+        <v>119</v>
       </c>
       <c r="F58">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>320</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Normal</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
         <v>175</v>
@@ -3241,32 +3248,32 @@
         <v>192</v>
       </c>
       <c r="E59">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" si="8"/>
+        <v>120</v>
       </c>
       <c r="F59">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>80</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Excess</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>175</v>
@@ -3278,32 +3285,32 @@
         <v>192</v>
       </c>
       <c r="E60">
-        <f t="shared" si="4"/>
-        <v>123</v>
+        <f t="shared" si="8"/>
+        <v>121</v>
       </c>
       <c r="F60">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f t="shared" si="11"/>
+        <v>125</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Normal</v>
       </c>
       <c r="L60">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
         <v>175</v>
@@ -3315,106 +3322,106 @@
         <v>192</v>
       </c>
       <c r="E61">
-        <f t="shared" si="4"/>
-        <v>124</v>
+        <f t="shared" si="8"/>
+        <v>122</v>
       </c>
       <c r="F61">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="7"/>
-        <v>320</v>
+        <f t="shared" si="11"/>
+        <v>125</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Excess</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C62" t="s">
         <v>174</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E62">
-        <f t="shared" si="4"/>
-        <v>101</v>
+        <f t="shared" si="8"/>
+        <v>123</v>
       </c>
       <c r="F62">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Normal</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C63" t="s">
         <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E63">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <f t="shared" si="8"/>
+        <v>124</v>
       </c>
       <c r="F63">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>320</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Excess</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
         <v>185</v>
@@ -3426,32 +3433,32 @@
         <v>193</v>
       </c>
       <c r="E64">
-        <f t="shared" si="4"/>
-        <v>103</v>
+        <f t="shared" si="8"/>
+        <v>101</v>
       </c>
       <c r="F64">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="8"/>
-        <v>Excess</v>
+        <f t="shared" si="12"/>
+        <v>Normal</v>
       </c>
       <c r="L64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
         <v>185</v>
@@ -3463,32 +3470,32 @@
         <v>193</v>
       </c>
       <c r="E65">
-        <f t="shared" si="4"/>
-        <v>104</v>
+        <f t="shared" si="8"/>
+        <v>102</v>
       </c>
       <c r="F65">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>320</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="8"/>
-        <v>Normal</v>
+        <f t="shared" si="12"/>
+        <v>Excess</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
         <v>185</v>
@@ -3500,32 +3507,32 @@
         <v>193</v>
       </c>
       <c r="E66">
-        <f t="shared" si="4"/>
-        <v>105</v>
+        <f t="shared" si="8"/>
+        <v>103</v>
       </c>
       <c r="F66">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>80</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Excess</v>
       </c>
       <c r="L66">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
         <v>185</v>
@@ -3537,32 +3544,32 @@
         <v>193</v>
       </c>
       <c r="E67">
-        <f t="shared" si="4"/>
-        <v>106</v>
+        <f t="shared" si="8"/>
+        <v>104</v>
       </c>
       <c r="F67">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>320</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Normal</v>
       </c>
       <c r="L67">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
         <v>185</v>
@@ -3574,32 +3581,32 @@
         <v>193</v>
       </c>
       <c r="E68">
-        <f t="shared" si="4"/>
-        <v>107</v>
+        <f t="shared" si="8"/>
+        <v>105</v>
       </c>
       <c r="F68">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="7"/>
-        <v>320</v>
+        <f t="shared" si="11"/>
+        <v>125</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Excess</v>
       </c>
       <c r="L68">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>185</v>
@@ -3611,32 +3618,32 @@
         <v>193</v>
       </c>
       <c r="E69">
-        <f t="shared" si="4"/>
-        <v>108</v>
+        <f t="shared" si="8"/>
+        <v>106</v>
       </c>
       <c r="F69">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="7"/>
-        <v>320</v>
+        <f t="shared" si="11"/>
+        <v>125</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Normal</v>
       </c>
       <c r="L69">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
         <v>185</v>
@@ -3648,32 +3655,32 @@
         <v>193</v>
       </c>
       <c r="E70">
-        <f t="shared" si="4"/>
-        <v>109</v>
+        <f t="shared" si="8"/>
+        <v>107</v>
       </c>
       <c r="F70">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="7"/>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>320</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Excess</v>
       </c>
       <c r="L70">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
         <v>185</v>
@@ -3685,32 +3692,32 @@
         <v>193</v>
       </c>
       <c r="E71">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f t="shared" si="8"/>
+        <v>108</v>
       </c>
       <c r="F71">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f t="shared" si="11"/>
+        <v>320</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Normal</v>
       </c>
       <c r="L71">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
         <v>185</v>
@@ -3722,32 +3729,32 @@
         <v>193</v>
       </c>
       <c r="E72">
-        <f t="shared" si="4"/>
-        <v>111</v>
+        <f t="shared" si="8"/>
+        <v>109</v>
       </c>
       <c r="F72">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="8"/>
-        <v>Normal</v>
+        <f t="shared" si="12"/>
+        <v>Excess</v>
       </c>
       <c r="L72">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
         <v>185</v>
@@ -3759,32 +3766,32 @@
         <v>193</v>
       </c>
       <c r="E73">
-        <f t="shared" si="4"/>
-        <v>112</v>
+        <f t="shared" si="8"/>
+        <v>110</v>
       </c>
       <c r="F73">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="8"/>
-        <v>Excess</v>
+        <f t="shared" si="12"/>
+        <v>Normal</v>
       </c>
       <c r="L73">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
         <v>185</v>
@@ -3796,32 +3803,32 @@
         <v>193</v>
       </c>
       <c r="E74">
-        <f t="shared" si="4"/>
-        <v>113</v>
+        <f t="shared" si="8"/>
+        <v>111</v>
       </c>
       <c r="F74">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="7"/>
-        <v>320</v>
+        <f t="shared" si="11"/>
+        <v>125</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Normal</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
         <v>185</v>
@@ -3833,32 +3840,32 @@
         <v>193</v>
       </c>
       <c r="E75">
-        <f t="shared" si="4"/>
-        <v>114</v>
+        <f t="shared" si="8"/>
+        <v>112</v>
       </c>
       <c r="F75">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Excess</v>
       </c>
       <c r="L75">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
         <v>185</v>
@@ -3870,32 +3877,32 @@
         <v>193</v>
       </c>
       <c r="E76">
-        <f t="shared" si="4"/>
-        <v>115</v>
+        <f t="shared" si="8"/>
+        <v>113</v>
       </c>
       <c r="F76">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>320</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="8"/>
-        <v>Excess</v>
+        <f t="shared" si="12"/>
+        <v>Normal</v>
       </c>
       <c r="L76">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
         <v>185</v>
@@ -3907,32 +3914,32 @@
         <v>193</v>
       </c>
       <c r="E77">
-        <f t="shared" si="4"/>
-        <v>116</v>
+        <f t="shared" si="8"/>
+        <v>114</v>
       </c>
       <c r="F77">
-        <f t="shared" ref="F77:F108" si="9">VLOOKUP($E77,Layout,L$1,FALSE)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" ref="G77:G108" si="10">VLOOKUP($E77,Layout,M$1,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" ref="H77:H108" si="11">VLOOKUP($E77,Layout,N$1,FALSE)</f>
-        <v>125</v>
+        <f t="shared" si="11"/>
+        <v>80</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" ref="I77:I108" si="12">VLOOKUP($E77,Layout,O$1,FALSE)</f>
-        <v>Normal</v>
+        <f t="shared" si="12"/>
+        <v>Excess</v>
       </c>
       <c r="L77">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
         <v>185</v>
@@ -3944,12 +3951,12 @@
         <v>193</v>
       </c>
       <c r="E78">
-        <f t="shared" ref="E78:E141" si="13">100+L78</f>
-        <v>117</v>
+        <f t="shared" si="8"/>
+        <v>115</v>
       </c>
       <c r="F78">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="10"/>
@@ -3957,19 +3964,19 @@
       </c>
       <c r="H78" t="str">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="12"/>
-        <v>Normal</v>
+        <v>Excess</v>
       </c>
       <c r="L78">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
         <v>185</v>
@@ -3981,32 +3988,32 @@
         <v>193</v>
       </c>
       <c r="E79">
-        <f t="shared" si="13"/>
-        <v>118</v>
+        <f t="shared" si="8"/>
+        <v>116</v>
       </c>
       <c r="F79">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F79:F110" si="13">VLOOKUP($E79,Layout,L$1,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" ref="G79:G110" si="14">VLOOKUP($E79,Layout,M$1,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="G79" t="str">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
       <c r="H79" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H79:H110" si="15">VLOOKUP($E79,Layout,N$1,FALSE)</f>
         <v>125</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="12"/>
-        <v>Excess</v>
+        <f t="shared" ref="I79:I110" si="16">VLOOKUP($E79,Layout,O$1,FALSE)</f>
+        <v>Normal</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
         <v>185</v>
@@ -4018,32 +4025,32 @@
         <v>193</v>
       </c>
       <c r="E80">
+        <f t="shared" ref="E80:E143" si="17">100+L80</f>
+        <v>117</v>
+      </c>
+      <c r="F80">
         <f t="shared" si="13"/>
-        <v>119</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="11"/>
-        <v>320</v>
+        <f t="shared" si="15"/>
+        <v>80</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Normal</v>
       </c>
       <c r="L80">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
         <v>185</v>
@@ -4055,32 +4062,32 @@
         <v>193</v>
       </c>
       <c r="E81">
+        <f t="shared" si="17"/>
+        <v>118</v>
+      </c>
+      <c r="F81">
         <f t="shared" si="13"/>
-        <v>120</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <f t="shared" si="15"/>
+        <v>125</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Excess</v>
       </c>
       <c r="L81">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
         <v>185</v>
@@ -4092,32 +4099,32 @@
         <v>193</v>
       </c>
       <c r="E82">
+        <f t="shared" si="17"/>
+        <v>119</v>
+      </c>
+      <c r="F82">
         <f t="shared" si="13"/>
-        <v>121</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="11"/>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>320</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Normal</v>
       </c>
       <c r="L82">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
         <v>185</v>
@@ -4129,32 +4136,32 @@
         <v>193</v>
       </c>
       <c r="E83">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
+      <c r="F83">
         <f t="shared" si="13"/>
-        <v>122</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="11"/>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>80</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Excess</v>
       </c>
       <c r="L83">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
         <v>185</v>
@@ -4166,32 +4173,32 @@
         <v>193</v>
       </c>
       <c r="E84">
+        <f t="shared" si="17"/>
+        <v>121</v>
+      </c>
+      <c r="F84">
         <f t="shared" si="13"/>
-        <v>123</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <f t="shared" si="15"/>
+        <v>125</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Normal</v>
       </c>
       <c r="L84">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
         <v>185</v>
@@ -4203,106 +4210,106 @@
         <v>193</v>
       </c>
       <c r="E85">
+        <f t="shared" si="17"/>
+        <v>122</v>
+      </c>
+      <c r="F85">
         <f t="shared" si="13"/>
-        <v>124</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="11"/>
-        <v>320</v>
+        <f t="shared" si="15"/>
+        <v>125</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Excess</v>
       </c>
       <c r="L85">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C86" t="s">
         <v>174</v>
       </c>
       <c r="D86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E86">
+        <f t="shared" si="17"/>
+        <v>123</v>
+      </c>
+      <c r="F86">
         <f t="shared" si="13"/>
-        <v>101</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Normal</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C87" t="s">
         <v>174</v>
       </c>
       <c r="D87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E87">
+        <f t="shared" si="17"/>
+        <v>124</v>
+      </c>
+      <c r="F87">
         <f t="shared" si="13"/>
-        <v>102</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>320</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Excess</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
         <v>175</v>
@@ -4314,32 +4321,32 @@
         <v>194</v>
       </c>
       <c r="E88">
+        <f t="shared" si="17"/>
+        <v>101</v>
+      </c>
+      <c r="F88">
         <f t="shared" si="13"/>
-        <v>103</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="12"/>
-        <v>Excess</v>
+        <f t="shared" si="16"/>
+        <v>Normal</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
         <v>175</v>
@@ -4351,32 +4358,32 @@
         <v>194</v>
       </c>
       <c r="E89">
+        <f t="shared" si="17"/>
+        <v>102</v>
+      </c>
+      <c r="F89">
         <f t="shared" si="13"/>
-        <v>104</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>320</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="12"/>
-        <v>Normal</v>
+        <f t="shared" si="16"/>
+        <v>Excess</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
         <v>175</v>
@@ -4388,32 +4395,32 @@
         <v>194</v>
       </c>
       <c r="E90">
+        <f t="shared" si="17"/>
+        <v>103</v>
+      </c>
+      <c r="F90">
         <f t="shared" si="13"/>
-        <v>105</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="11"/>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>80</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Excess</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
         <v>175</v>
@@ -4425,32 +4432,32 @@
         <v>194</v>
       </c>
       <c r="E91">
+        <f t="shared" si="17"/>
+        <v>104</v>
+      </c>
+      <c r="F91">
         <f t="shared" si="13"/>
-        <v>106</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="11"/>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>320</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Normal</v>
       </c>
       <c r="L91">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
         <v>175</v>
@@ -4462,32 +4469,32 @@
         <v>194</v>
       </c>
       <c r="E92">
+        <f t="shared" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="F92">
         <f t="shared" si="13"/>
-        <v>107</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="11"/>
-        <v>320</v>
+        <f t="shared" si="15"/>
+        <v>125</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Excess</v>
       </c>
       <c r="L92">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
         <v>175</v>
@@ -4499,32 +4506,32 @@
         <v>194</v>
       </c>
       <c r="E93">
+        <f t="shared" si="17"/>
+        <v>106</v>
+      </c>
+      <c r="F93">
         <f t="shared" si="13"/>
-        <v>108</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="10"/>
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="11"/>
-        <v>320</v>
+        <f t="shared" si="15"/>
+        <v>125</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Normal</v>
       </c>
       <c r="L93">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
         <v>175</v>
@@ -4536,32 +4543,32 @@
         <v>194</v>
       </c>
       <c r="E94">
+        <f t="shared" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="F94">
         <f t="shared" si="13"/>
-        <v>109</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="11"/>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>320</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Excess</v>
       </c>
       <c r="L94">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
         <v>175</v>
@@ -4573,32 +4580,32 @@
         <v>194</v>
       </c>
       <c r="E95">
+        <f t="shared" si="17"/>
+        <v>108</v>
+      </c>
+      <c r="F95">
         <f t="shared" si="13"/>
-        <v>110</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <f t="shared" si="15"/>
+        <v>320</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Normal</v>
       </c>
       <c r="L95">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
         <v>175</v>
@@ -4610,32 +4617,32 @@
         <v>194</v>
       </c>
       <c r="E96">
+        <f t="shared" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="F96">
         <f t="shared" si="13"/>
-        <v>111</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>125</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="12"/>
-        <v>Normal</v>
+        <f t="shared" si="16"/>
+        <v>Excess</v>
       </c>
       <c r="L96">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
         <v>175</v>
@@ -4647,32 +4654,32 @@
         <v>194</v>
       </c>
       <c r="E97">
+        <f t="shared" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="F97">
         <f t="shared" si="13"/>
-        <v>112</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="12"/>
-        <v>Excess</v>
+        <f t="shared" si="16"/>
+        <v>Normal</v>
       </c>
       <c r="L97">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
         <v>175</v>
@@ -4684,32 +4691,32 @@
         <v>194</v>
       </c>
       <c r="E98">
+        <f t="shared" si="17"/>
+        <v>111</v>
+      </c>
+      <c r="F98">
         <f t="shared" si="13"/>
-        <v>113</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="11"/>
-        <v>320</v>
+        <f t="shared" si="15"/>
+        <v>125</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Normal</v>
       </c>
       <c r="L98">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
         <v>175</v>
@@ -4721,32 +4728,32 @@
         <v>194</v>
       </c>
       <c r="E99">
+        <f t="shared" si="17"/>
+        <v>112</v>
+      </c>
+      <c r="F99">
         <f t="shared" si="13"/>
-        <v>114</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Excess</v>
       </c>
       <c r="L99">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
         <v>175</v>
@@ -4758,32 +4765,32 @@
         <v>194</v>
       </c>
       <c r="E100">
+        <f t="shared" si="17"/>
+        <v>113</v>
+      </c>
+      <c r="F100">
         <f t="shared" si="13"/>
-        <v>115</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>320</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="12"/>
-        <v>Excess</v>
+        <f t="shared" si="16"/>
+        <v>Normal</v>
       </c>
       <c r="L100">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
         <v>175</v>
@@ -4795,32 +4802,32 @@
         <v>194</v>
       </c>
       <c r="E101">
+        <f t="shared" si="17"/>
+        <v>114</v>
+      </c>
+      <c r="F101">
         <f t="shared" si="13"/>
-        <v>116</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="11"/>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>80</v>
       </c>
       <c r="I101" t="str">
-        <f t="shared" si="12"/>
-        <v>Normal</v>
+        <f t="shared" si="16"/>
+        <v>Excess</v>
       </c>
       <c r="L101">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
         <v>175</v>
@@ -4832,32 +4839,32 @@
         <v>194</v>
       </c>
       <c r="E102">
+        <f t="shared" si="17"/>
+        <v>115</v>
+      </c>
+      <c r="F102">
         <f t="shared" si="13"/>
-        <v>117</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <f t="shared" si="15"/>
+        <v>320</v>
       </c>
       <c r="I102" t="str">
-        <f t="shared" si="12"/>
-        <v>Normal</v>
+        <f t="shared" si="16"/>
+        <v>Excess</v>
       </c>
       <c r="L102">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
         <v>175</v>
@@ -4869,32 +4876,32 @@
         <v>194</v>
       </c>
       <c r="E103">
+        <f t="shared" si="17"/>
+        <v>116</v>
+      </c>
+      <c r="F103">
         <f t="shared" si="13"/>
-        <v>118</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="G103" t="str">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
       <c r="H103" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>125</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="12"/>
-        <v>Excess</v>
+        <f t="shared" si="16"/>
+        <v>Normal</v>
       </c>
       <c r="L103">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
         <v>175</v>
@@ -4906,32 +4913,32 @@
         <v>194</v>
       </c>
       <c r="E104">
+        <f t="shared" si="17"/>
+        <v>117</v>
+      </c>
+      <c r="F104">
         <f t="shared" si="13"/>
-        <v>119</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="11"/>
-        <v>320</v>
+        <f t="shared" si="15"/>
+        <v>80</v>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Normal</v>
       </c>
       <c r="L104">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
         <v>175</v>
@@ -4943,32 +4950,32 @@
         <v>194</v>
       </c>
       <c r="E105">
+        <f t="shared" si="17"/>
+        <v>118</v>
+      </c>
+      <c r="F105">
         <f t="shared" si="13"/>
-        <v>120</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <f t="shared" si="15"/>
+        <v>125</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Excess</v>
       </c>
       <c r="L105">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
         <v>175</v>
@@ -4980,32 +4987,32 @@
         <v>194</v>
       </c>
       <c r="E106">
+        <f t="shared" si="17"/>
+        <v>119</v>
+      </c>
+      <c r="F106">
         <f t="shared" si="13"/>
-        <v>121</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="11"/>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>320</v>
       </c>
       <c r="I106" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Normal</v>
       </c>
       <c r="L106">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
         <v>175</v>
@@ -5017,32 +5024,32 @@
         <v>194</v>
       </c>
       <c r="E107">
+        <f t="shared" si="17"/>
+        <v>120</v>
+      </c>
+      <c r="F107">
         <f t="shared" si="13"/>
-        <v>122</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="11"/>
-        <v>125</v>
+        <f t="shared" si="15"/>
+        <v>80</v>
       </c>
       <c r="I107" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Excess</v>
       </c>
       <c r="L107">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
         <v>175</v>
@@ -5054,32 +5061,32 @@
         <v>194</v>
       </c>
       <c r="E108">
+        <f t="shared" si="17"/>
+        <v>121</v>
+      </c>
+      <c r="F108">
         <f t="shared" si="13"/>
-        <v>123</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <f t="shared" si="15"/>
+        <v>125</v>
       </c>
       <c r="I108" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Normal</v>
       </c>
       <c r="L108">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
         <v>175</v>
@@ -5091,102 +5098,106 @@
         <v>194</v>
       </c>
       <c r="E109">
+        <f t="shared" si="17"/>
+        <v>122</v>
+      </c>
+      <c r="F109">
         <f t="shared" si="13"/>
-        <v>124</v>
-      </c>
-      <c r="F109">
-        <f t="shared" ref="F109:F140" si="14">VLOOKUP($E109,Layout,L$1,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" ref="G109:G140" si="15">VLOOKUP($E109,Layout,M$1,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" ref="H109:H140" si="16">VLOOKUP($E109,Layout,N$1,FALSE)</f>
-        <v>320</v>
+        <f t="shared" si="15"/>
+        <v>125</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" ref="I109:I140" si="17">VLOOKUP($E109,Layout,O$1,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>Excess</v>
       </c>
       <c r="L109">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
         <v>174</v>
       </c>
       <c r="D110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E110">
+        <f t="shared" si="17"/>
+        <v>123</v>
+      </c>
+      <c r="F110">
         <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F110" t="e">
+        <v>6</v>
+      </c>
+      <c r="G110" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G110" t="e">
+        <v>4</v>
+      </c>
+      <c r="H110" t="str">
         <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H110" t="e">
+        <v>80</v>
+      </c>
+      <c r="I110" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I110" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L110" s="4"/>
+        <v>Normal</v>
+      </c>
+      <c r="L110">
+        <v>23</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
         <v>174</v>
       </c>
       <c r="D111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E111">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F111" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G111" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H111" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I111" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L111" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ref="F111:F142" si="18">VLOOKUP($E111,Layout,L$1,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" ref="G111:G142" si="19">VLOOKUP($E111,Layout,M$1,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" ref="H111:H142" si="20">VLOOKUP($E111,Layout,N$1,FALSE)</f>
+        <v>320</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" ref="I111:I142" si="21">VLOOKUP($E111,Layout,O$1,FALSE)</f>
+        <v>Excess</v>
+      </c>
+      <c r="L111">
+        <v>24</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
         <v>184</v>
@@ -5198,30 +5209,32 @@
         <v>195</v>
       </c>
       <c r="E112">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F112" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G112" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H112" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I112" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L112" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="F112">
+        <f>VLOOKUP($E112,Layout,L$1,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L112" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
         <v>184</v>
@@ -5233,30 +5246,32 @@
         <v>195</v>
       </c>
       <c r="E113">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F113" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G113" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H113" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I113" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L113" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="20"/>
+        <v>320</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L113" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
         <v>184</v>
@@ -5268,30 +5283,32 @@
         <v>195</v>
       </c>
       <c r="E114">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F114" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G114" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H114" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I114" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L114" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L114" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
         <v>184</v>
@@ -5303,30 +5320,32 @@
         <v>195</v>
       </c>
       <c r="E115">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F115" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G115" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H115" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I115" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L115" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L115" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
         <v>184</v>
@@ -5338,30 +5357,32 @@
         <v>195</v>
       </c>
       <c r="E116">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F116" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G116" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H116" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I116" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L116" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="20"/>
+        <v>320</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L116" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
         <v>184</v>
@@ -5373,30 +5394,32 @@
         <v>195</v>
       </c>
       <c r="E117">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F117" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G117" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H117" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I117" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L117" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L117" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
         <v>184</v>
@@ -5408,30 +5431,32 @@
         <v>195</v>
       </c>
       <c r="E118">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F118" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G118" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H118" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I118" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L118" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L118" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
         <v>184</v>
@@ -5443,30 +5468,32 @@
         <v>195</v>
       </c>
       <c r="E119">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F119" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G119" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H119" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I119" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L119" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L119" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
         <v>184</v>
@@ -5478,30 +5505,32 @@
         <v>195</v>
       </c>
       <c r="E120">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F120" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G120" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H120" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I120" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L120" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="20"/>
+        <v>320</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L120" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
         <v>184</v>
@@ -5513,100 +5542,106 @@
         <v>195</v>
       </c>
       <c r="E121">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F121" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G121" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H121" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I121" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L121" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="20"/>
+        <v>320</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L121" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C122" t="s">
         <v>174</v>
       </c>
       <c r="D122" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E122">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F122" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G122" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H122" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I122" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L122" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L122" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C123" t="s">
         <v>174</v>
       </c>
       <c r="D123" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E123">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F123" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G123" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H123" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I123" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L123" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L123" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
         <v>178</v>
@@ -5618,30 +5653,32 @@
         <v>197</v>
       </c>
       <c r="E124">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F124" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G124" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H124" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I124" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L124" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L124" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
         <v>178</v>
@@ -5653,30 +5690,32 @@
         <v>197</v>
       </c>
       <c r="E125">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F125" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G125" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H125" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I125" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L125" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="20"/>
+        <v>320</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L125" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
         <v>178</v>
@@ -5688,30 +5727,32 @@
         <v>197</v>
       </c>
       <c r="E126">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F126" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G126" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H126" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I126" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L126" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L126" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
         <v>178</v>
@@ -5723,30 +5764,32 @@
         <v>197</v>
       </c>
       <c r="E127">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F127" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G127" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H127" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I127" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L127" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L127" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
         <v>178</v>
@@ -5758,30 +5801,32 @@
         <v>197</v>
       </c>
       <c r="E128">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F128" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G128" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H128" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I128" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L128" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="20"/>
+        <v>320</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L128" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
         <v>178</v>
@@ -5793,30 +5838,32 @@
         <v>197</v>
       </c>
       <c r="E129">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F129" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G129" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H129" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I129" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L129" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L129" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
         <v>178</v>
@@ -5828,30 +5875,32 @@
         <v>197</v>
       </c>
       <c r="E130">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F130" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G130" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H130" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I130" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L130" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L130" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
         <v>178</v>
@@ -5863,30 +5912,32 @@
         <v>197</v>
       </c>
       <c r="E131">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F131" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G131" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H131" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I131" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L131" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L131" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
         <v>178</v>
@@ -5898,30 +5949,32 @@
         <v>197</v>
       </c>
       <c r="E132">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F132" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G132" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H132" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I132" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L132" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="20"/>
+        <v>320</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L132" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
         <v>178</v>
@@ -5933,100 +5986,106 @@
         <v>197</v>
       </c>
       <c r="E133">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F133" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G133" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H133" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I133" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L133" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="20"/>
+        <v>320</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L133" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C134" t="s">
         <v>174</v>
       </c>
       <c r="D134" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E134">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F134" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G134" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H134" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I134" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L134" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L134" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C135" t="s">
         <v>174</v>
       </c>
       <c r="D135" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E135">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F135" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G135" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H135" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I135" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L135" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L135" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
         <v>179</v>
@@ -6038,30 +6097,32 @@
         <v>196</v>
       </c>
       <c r="E136">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F136" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G136" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H136" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I136" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L136" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L136" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
         <v>179</v>
@@ -6073,30 +6134,32 @@
         <v>196</v>
       </c>
       <c r="E137">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F137" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G137" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H137" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I137" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L137" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="20"/>
+        <v>320</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L137" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
         <v>179</v>
@@ -6108,30 +6171,32 @@
         <v>196</v>
       </c>
       <c r="E138">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F138" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G138" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H138" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I138" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L138" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L138" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
         <v>179</v>
@@ -6143,30 +6208,32 @@
         <v>196</v>
       </c>
       <c r="E139">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F139" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G139" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H139" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I139" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L139" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L139" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
         <v>179</v>
@@ -6178,30 +6245,32 @@
         <v>196</v>
       </c>
       <c r="E140">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F140" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G140" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H140" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I140" t="e">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L140" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="20"/>
+        <v>320</v>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="21"/>
+        <v>Normal</v>
+      </c>
+      <c r="L140" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
         <v>179</v>
@@ -6213,30 +6282,32 @@
         <v>196</v>
       </c>
       <c r="E141">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="F141" t="e">
-        <f t="shared" ref="F141:F169" si="18">VLOOKUP($E141,Layout,L$1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G141" t="e">
-        <f t="shared" ref="G141:G169" si="19">VLOOKUP($E141,Layout,M$1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H141" t="e">
-        <f t="shared" ref="H141:H169" si="20">VLOOKUP($E141,Layout,N$1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I141" t="e">
-        <f t="shared" ref="I141:I169" si="21">VLOOKUP($E141,Layout,O$1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L141" s="4"/>
+        <f t="shared" si="17"/>
+        <v>109</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="20"/>
+        <v>125</v>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" si="21"/>
+        <v>Excess</v>
+      </c>
+      <c r="L141" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
         <v>179</v>
@@ -6248,30 +6319,32 @@
         <v>196</v>
       </c>
       <c r="E142">
-        <f t="shared" ref="E142:E181" si="22">100+L142</f>
-        <v>100</v>
-      </c>
-      <c r="F142" t="e">
+        <f t="shared" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="F142">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G142" t="e">
+        <v>6</v>
+      </c>
+      <c r="G142" t="str">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H142" t="e">
+        <v>2</v>
+      </c>
+      <c r="H142" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I142" t="e">
+        <v>80</v>
+      </c>
+      <c r="I142" t="str">
         <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L142" s="4"/>
+        <v>Normal</v>
+      </c>
+      <c r="L142" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
         <v>179</v>
@@ -6283,30 +6356,32 @@
         <v>196</v>
       </c>
       <c r="E143">
-        <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F143" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G143" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H143" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I143" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L143" s="4"/>
+        <f t="shared" si="17"/>
+        <v>111</v>
+      </c>
+      <c r="F143">
+        <f t="shared" ref="F143:F171" si="22">VLOOKUP($E143,Layout,L$1,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" ref="G143:G171" si="23">VLOOKUP($E143,Layout,M$1,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" ref="H143:H171" si="24">VLOOKUP($E143,Layout,N$1,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="I143" t="str">
+        <f t="shared" ref="I143:I171" si="25">VLOOKUP($E143,Layout,O$1,FALSE)</f>
+        <v>Normal</v>
+      </c>
+      <c r="L143" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
         <v>179</v>
@@ -6318,30 +6393,32 @@
         <v>196</v>
       </c>
       <c r="E144">
+        <f t="shared" ref="E144:E183" si="26">100+L144</f>
+        <v>113</v>
+      </c>
+      <c r="F144">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F144" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G144" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H144" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I144" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L144" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="24"/>
+        <v>320</v>
+      </c>
+      <c r="I144" t="str">
+        <f t="shared" si="25"/>
+        <v>Normal</v>
+      </c>
+      <c r="L144" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
         <v>179</v>
@@ -6353,104 +6430,106 @@
         <v>196</v>
       </c>
       <c r="E145">
+        <f t="shared" si="26"/>
+        <v>115</v>
+      </c>
+      <c r="F145">
         <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="F145" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G145" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H145" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I145" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L145" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="24"/>
+        <v>320</v>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" si="25"/>
+        <v>Excess</v>
+      </c>
+      <c r="L145" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C146" t="s">
         <v>174</v>
       </c>
       <c r="D146" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E146">
+        <f t="shared" si="26"/>
+        <v>116</v>
+      </c>
+      <c r="F146">
         <f t="shared" si="22"/>
-        <v>101</v>
-      </c>
-      <c r="F146">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G146" t="str">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="20"/>
-        <v>80</v>
+        <f t="shared" si="24"/>
+        <v>125</v>
       </c>
       <c r="I146" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Normal</v>
       </c>
       <c r="L146" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C147" t="s">
         <v>174</v>
       </c>
       <c r="D147" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E147">
+        <f t="shared" si="26"/>
+        <v>117</v>
+      </c>
+      <c r="F147">
         <f t="shared" si="22"/>
-        <v>102</v>
-      </c>
-      <c r="F147">
-        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="G147" t="str">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="20"/>
-        <v>320</v>
+        <f t="shared" si="24"/>
+        <v>80</v>
       </c>
       <c r="I147" t="str">
-        <f t="shared" si="21"/>
-        <v>Excess</v>
+        <f t="shared" si="25"/>
+        <v>Normal</v>
       </c>
       <c r="L147" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
         <v>186</v>
@@ -6462,32 +6541,32 @@
         <v>198</v>
       </c>
       <c r="E148">
+        <f t="shared" si="26"/>
+        <v>101</v>
+      </c>
+      <c r="F148">
         <f t="shared" si="22"/>
-        <v>103</v>
-      </c>
-      <c r="F148">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G148" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>80</v>
       </c>
       <c r="I148" t="str">
-        <f t="shared" si="21"/>
-        <v>Excess</v>
+        <f t="shared" si="25"/>
+        <v>Normal</v>
       </c>
       <c r="L148" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
         <v>186</v>
@@ -6499,32 +6578,32 @@
         <v>198</v>
       </c>
       <c r="E149">
+        <f t="shared" si="26"/>
+        <v>102</v>
+      </c>
+      <c r="F149">
         <f t="shared" si="22"/>
-        <v>105</v>
-      </c>
-      <c r="F149">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G149" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <f t="shared" si="24"/>
+        <v>320</v>
       </c>
       <c r="I149" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Excess</v>
       </c>
       <c r="L149" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
         <v>186</v>
@@ -6536,32 +6615,32 @@
         <v>198</v>
       </c>
       <c r="E150">
+        <f t="shared" si="26"/>
+        <v>103</v>
+      </c>
+      <c r="F150">
         <f t="shared" si="22"/>
-        <v>108</v>
-      </c>
-      <c r="F150">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150" t="str">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="20"/>
-        <v>320</v>
+        <f t="shared" si="24"/>
+        <v>80</v>
       </c>
       <c r="I150" t="str">
-        <f t="shared" si="21"/>
-        <v>Normal</v>
+        <f t="shared" si="25"/>
+        <v>Excess</v>
       </c>
       <c r="L150" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
         <v>186</v>
@@ -6573,32 +6652,32 @@
         <v>198</v>
       </c>
       <c r="E151">
+        <f t="shared" si="26"/>
+        <v>105</v>
+      </c>
+      <c r="F151">
         <f t="shared" si="22"/>
-        <v>109</v>
-      </c>
-      <c r="F151">
-        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="24"/>
+        <v>125</v>
+      </c>
+      <c r="I151" t="str">
+        <f t="shared" si="25"/>
+        <v>Excess</v>
+      </c>
+      <c r="L151" s="4">
         <v>5</v>
-      </c>
-      <c r="G151" t="str">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="H151" t="str">
-        <f t="shared" si="20"/>
-        <v>125</v>
-      </c>
-      <c r="I151" t="str">
-        <f t="shared" si="21"/>
-        <v>Excess</v>
-      </c>
-      <c r="L151" s="4">
-        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
         <v>186</v>
@@ -6610,32 +6689,32 @@
         <v>198</v>
       </c>
       <c r="E152">
+        <f t="shared" si="26"/>
+        <v>108</v>
+      </c>
+      <c r="F152">
         <f t="shared" si="22"/>
-        <v>110</v>
-      </c>
-      <c r="F152">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G152" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="20"/>
-        <v>80</v>
+        <f t="shared" si="24"/>
+        <v>320</v>
       </c>
       <c r="I152" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Normal</v>
       </c>
       <c r="L152" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
         <v>186</v>
@@ -6647,32 +6726,32 @@
         <v>198</v>
       </c>
       <c r="E153">
+        <f t="shared" si="26"/>
+        <v>109</v>
+      </c>
+      <c r="F153">
         <f t="shared" si="22"/>
-        <v>111</v>
-      </c>
-      <c r="F153">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G153" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>125</v>
       </c>
       <c r="I153" t="str">
-        <f t="shared" si="21"/>
-        <v>Normal</v>
+        <f t="shared" si="25"/>
+        <v>Excess</v>
       </c>
       <c r="L153" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B154" t="s">
         <v>186</v>
@@ -6684,32 +6763,32 @@
         <v>198</v>
       </c>
       <c r="E154">
+        <f t="shared" si="26"/>
+        <v>110</v>
+      </c>
+      <c r="F154">
         <f t="shared" si="22"/>
-        <v>113</v>
-      </c>
-      <c r="F154">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G154" t="str">
-        <f t="shared" si="19"/>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="20"/>
-        <v>320</v>
+        <f t="shared" si="24"/>
+        <v>80</v>
       </c>
       <c r="I154" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Normal</v>
       </c>
       <c r="L154" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
         <v>186</v>
@@ -6721,32 +6800,32 @@
         <v>198</v>
       </c>
       <c r="E155">
+        <f t="shared" si="26"/>
+        <v>111</v>
+      </c>
+      <c r="F155">
         <f t="shared" si="22"/>
-        <v>115</v>
-      </c>
-      <c r="F155">
-        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="G155" t="str">
-        <f t="shared" si="19"/>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="20"/>
-        <v>320</v>
+        <f t="shared" si="24"/>
+        <v>125</v>
       </c>
       <c r="I155" t="str">
-        <f t="shared" si="21"/>
-        <v>Excess</v>
+        <f t="shared" si="25"/>
+        <v>Normal</v>
       </c>
       <c r="L155" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
         <v>186</v>
@@ -6758,32 +6837,32 @@
         <v>198</v>
       </c>
       <c r="E156">
+        <f t="shared" si="26"/>
+        <v>113</v>
+      </c>
+      <c r="F156">
         <f t="shared" si="22"/>
-        <v>116</v>
-      </c>
-      <c r="F156">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G156" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <f t="shared" si="24"/>
+        <v>320</v>
       </c>
       <c r="I156" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Normal</v>
       </c>
       <c r="L156" s="4">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
         <v>186</v>
@@ -6795,106 +6874,106 @@
         <v>198</v>
       </c>
       <c r="E157">
+        <f t="shared" si="26"/>
+        <v>115</v>
+      </c>
+      <c r="F157">
         <f t="shared" si="22"/>
-        <v>117</v>
-      </c>
-      <c r="F157">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G157" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="20"/>
-        <v>80</v>
+        <f t="shared" si="24"/>
+        <v>320</v>
       </c>
       <c r="I157" t="str">
-        <f t="shared" si="21"/>
-        <v>Normal</v>
+        <f t="shared" si="25"/>
+        <v>Excess</v>
       </c>
       <c r="L157" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C158" t="s">
         <v>174</v>
       </c>
       <c r="D158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E158">
+        <f t="shared" si="26"/>
+        <v>116</v>
+      </c>
+      <c r="F158">
         <f t="shared" si="22"/>
-        <v>101</v>
-      </c>
-      <c r="F158">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G158" t="str">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="20"/>
-        <v>80</v>
+        <f t="shared" si="24"/>
+        <v>125</v>
       </c>
       <c r="I158" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Normal</v>
       </c>
       <c r="L158" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C159" t="s">
         <v>174</v>
       </c>
       <c r="D159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E159">
+        <f t="shared" si="26"/>
+        <v>117</v>
+      </c>
+      <c r="F159">
         <f t="shared" si="22"/>
-        <v>102</v>
-      </c>
-      <c r="F159">
-        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="G159" t="str">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="20"/>
-        <v>320</v>
+        <f t="shared" si="24"/>
+        <v>80</v>
       </c>
       <c r="I159" t="str">
-        <f t="shared" si="21"/>
-        <v>Excess</v>
+        <f t="shared" si="25"/>
+        <v>Normal</v>
       </c>
       <c r="L159" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
         <v>187</v>
@@ -6906,32 +6985,32 @@
         <v>199</v>
       </c>
       <c r="E160">
+        <f t="shared" si="26"/>
+        <v>101</v>
+      </c>
+      <c r="F160">
         <f t="shared" si="22"/>
-        <v>103</v>
-      </c>
-      <c r="F160">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G160" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>80</v>
       </c>
       <c r="I160" t="str">
-        <f t="shared" si="21"/>
-        <v>Excess</v>
+        <f t="shared" si="25"/>
+        <v>Normal</v>
       </c>
       <c r="L160" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
         <v>187</v>
@@ -6943,32 +7022,32 @@
         <v>199</v>
       </c>
       <c r="E161">
+        <f t="shared" si="26"/>
+        <v>102</v>
+      </c>
+      <c r="F161">
         <f t="shared" si="22"/>
-        <v>104</v>
-      </c>
-      <c r="F161">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G161" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>320</v>
       </c>
       <c r="I161" t="str">
-        <f t="shared" si="21"/>
-        <v>Normal</v>
+        <f t="shared" si="25"/>
+        <v>Excess</v>
       </c>
       <c r="L161" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
         <v>187</v>
@@ -6980,32 +7059,32 @@
         <v>199</v>
       </c>
       <c r="E162">
+        <f t="shared" si="26"/>
+        <v>103</v>
+      </c>
+      <c r="F162">
         <f t="shared" si="22"/>
-        <v>105</v>
-      </c>
-      <c r="F162">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G162" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <f t="shared" si="24"/>
+        <v>80</v>
       </c>
       <c r="I162" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Excess</v>
       </c>
       <c r="L162" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
         <v>187</v>
@@ -7017,32 +7096,32 @@
         <v>199</v>
       </c>
       <c r="E163">
+        <f t="shared" si="26"/>
+        <v>104</v>
+      </c>
+      <c r="F163">
         <f t="shared" si="22"/>
-        <v>106</v>
-      </c>
-      <c r="F163">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G163" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <f t="shared" si="24"/>
+        <v>320</v>
       </c>
       <c r="I163" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Normal</v>
       </c>
       <c r="L163" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B164" t="s">
         <v>187</v>
@@ -7054,32 +7133,32 @@
         <v>199</v>
       </c>
       <c r="E164">
+        <f t="shared" si="26"/>
+        <v>105</v>
+      </c>
+      <c r="F164">
         <f t="shared" si="22"/>
-        <v>107</v>
-      </c>
-      <c r="F164">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G164" t="str">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="H164" t="str">
-        <f t="shared" si="20"/>
-        <v>320</v>
+        <f t="shared" si="24"/>
+        <v>125</v>
       </c>
       <c r="I164" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Excess</v>
       </c>
       <c r="L164" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
         <v>187</v>
@@ -7091,32 +7170,32 @@
         <v>199</v>
       </c>
       <c r="E165">
+        <f t="shared" si="26"/>
+        <v>106</v>
+      </c>
+      <c r="F165">
         <f t="shared" si="22"/>
-        <v>108</v>
-      </c>
-      <c r="F165">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G165" t="str">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" si="20"/>
-        <v>320</v>
+        <f t="shared" si="24"/>
+        <v>125</v>
       </c>
       <c r="I165" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Normal</v>
       </c>
       <c r="L165" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
         <v>187</v>
@@ -7128,32 +7207,32 @@
         <v>199</v>
       </c>
       <c r="E166">
+        <f t="shared" si="26"/>
+        <v>107</v>
+      </c>
+      <c r="F166">
         <f t="shared" si="22"/>
-        <v>109</v>
-      </c>
-      <c r="F166">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G166" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="20"/>
-        <v>125</v>
+        <f t="shared" si="24"/>
+        <v>320</v>
       </c>
       <c r="I166" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Excess</v>
       </c>
       <c r="L166" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
         <v>187</v>
@@ -7165,32 +7244,32 @@
         <v>199</v>
       </c>
       <c r="E167">
+        <f t="shared" si="26"/>
+        <v>108</v>
+      </c>
+      <c r="F167">
         <f t="shared" si="22"/>
-        <v>110</v>
-      </c>
-      <c r="F167">
-        <f t="shared" si="18"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G167" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="20"/>
-        <v>80</v>
+        <f t="shared" si="24"/>
+        <v>320</v>
       </c>
       <c r="I167" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>Normal</v>
       </c>
       <c r="L167" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
         <v>187</v>
@@ -7202,32 +7281,32 @@
         <v>199</v>
       </c>
       <c r="E168">
+        <f t="shared" si="26"/>
+        <v>109</v>
+      </c>
+      <c r="F168">
         <f t="shared" si="22"/>
-        <v>111</v>
-      </c>
-      <c r="F168">
-        <f t="shared" si="18"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G168" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>125</v>
       </c>
       <c r="I168" t="str">
-        <f t="shared" si="21"/>
-        <v>Normal</v>
+        <f t="shared" si="25"/>
+        <v>Excess</v>
       </c>
       <c r="L168" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
         <v>187</v>
@@ -7239,32 +7318,32 @@
         <v>199</v>
       </c>
       <c r="E169">
+        <f t="shared" si="26"/>
+        <v>110</v>
+      </c>
+      <c r="F169">
         <f t="shared" si="22"/>
-        <v>112</v>
-      </c>
-      <c r="F169">
-        <f t="shared" si="18"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G169" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>80</v>
       </c>
       <c r="I169" t="str">
-        <f t="shared" si="21"/>
-        <v>Excess</v>
+        <f t="shared" si="25"/>
+        <v>Normal</v>
       </c>
       <c r="L169" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
         <v>187</v>
@@ -7276,32 +7355,32 @@
         <v>199</v>
       </c>
       <c r="E170">
+        <f t="shared" si="26"/>
+        <v>111</v>
+      </c>
+      <c r="F170">
         <f t="shared" si="22"/>
-        <v>113</v>
-      </c>
-      <c r="F170">
-        <f t="shared" ref="F170:F181" si="23">VLOOKUP($E170,Layout,L$1,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G170" t="str">
-        <f t="shared" ref="G170:G181" si="24">VLOOKUP($E170,Layout,M$1,FALSE)</f>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="H170" t="str">
-        <f t="shared" ref="H170:H181" si="25">VLOOKUP($E170,Layout,N$1,FALSE)</f>
-        <v>320</v>
+        <f t="shared" si="24"/>
+        <v>125</v>
       </c>
       <c r="I170" t="str">
-        <f t="shared" ref="I170:I181" si="26">VLOOKUP($E170,Layout,O$1,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>Normal</v>
       </c>
       <c r="L170" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B171" t="s">
         <v>187</v>
@@ -7313,32 +7392,32 @@
         <v>199</v>
       </c>
       <c r="E171">
+        <f t="shared" si="26"/>
+        <v>112</v>
+      </c>
+      <c r="F171">
         <f t="shared" si="22"/>
-        <v>114</v>
-      </c>
-      <c r="F171">
+        <v>3</v>
+      </c>
+      <c r="G171" t="str">
         <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="G171" t="str">
+        <v>2</v>
+      </c>
+      <c r="H171" t="str">
         <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="H171" t="str">
+        <v>80</v>
+      </c>
+      <c r="I171" t="str">
         <f t="shared" si="25"/>
-        <v>80</v>
-      </c>
-      <c r="I171" t="str">
-        <f t="shared" si="26"/>
         <v>Excess</v>
       </c>
       <c r="L171" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B172" t="s">
         <v>187</v>
@@ -7350,32 +7429,32 @@
         <v>199</v>
       </c>
       <c r="E172">
-        <f t="shared" si="22"/>
-        <v>115</v>
+        <f t="shared" si="26"/>
+        <v>113</v>
       </c>
       <c r="F172">
-        <f t="shared" si="23"/>
-        <v>2</v>
+        <f t="shared" ref="F172:F183" si="27">VLOOKUP($E172,Layout,L$1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="G172" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="G172:G183" si="28">VLOOKUP($E172,Layout,M$1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="H172" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="H172:H183" si="29">VLOOKUP($E172,Layout,N$1,FALSE)</f>
         <v>320</v>
       </c>
       <c r="I172" t="str">
-        <f t="shared" si="26"/>
-        <v>Excess</v>
+        <f t="shared" ref="I172:I183" si="30">VLOOKUP($E172,Layout,O$1,FALSE)</f>
+        <v>Normal</v>
       </c>
       <c r="L172" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="B173" t="s">
         <v>187</v>
@@ -7387,32 +7466,32 @@
         <v>199</v>
       </c>
       <c r="E173">
-        <f t="shared" si="22"/>
-        <v>116</v>
+        <f t="shared" si="26"/>
+        <v>114</v>
       </c>
       <c r="F173">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>4</v>
       </c>
       <c r="G173" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="25"/>
-        <v>125</v>
+        <f t="shared" si="29"/>
+        <v>80</v>
       </c>
       <c r="I173" t="str">
-        <f t="shared" si="26"/>
-        <v>Normal</v>
+        <f t="shared" si="30"/>
+        <v>Excess</v>
       </c>
       <c r="L173" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="B174" t="s">
         <v>187</v>
@@ -7424,32 +7503,32 @@
         <v>199</v>
       </c>
       <c r="E174">
-        <f t="shared" si="22"/>
-        <v>117</v>
+        <f t="shared" si="26"/>
+        <v>115</v>
       </c>
       <c r="F174">
-        <f t="shared" si="23"/>
-        <v>6</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="G174" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="25"/>
-        <v>80</v>
+        <f t="shared" si="29"/>
+        <v>320</v>
       </c>
       <c r="I174" t="str">
-        <f t="shared" si="26"/>
-        <v>Normal</v>
+        <f t="shared" si="30"/>
+        <v>Excess</v>
       </c>
       <c r="L174" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B175" t="s">
         <v>187</v>
@@ -7461,32 +7540,32 @@
         <v>199</v>
       </c>
       <c r="E175">
-        <f t="shared" si="22"/>
-        <v>118</v>
+        <f t="shared" si="26"/>
+        <v>116</v>
       </c>
       <c r="F175">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
-      <c r="G175" t="str">
-        <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
       <c r="H175" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>125</v>
       </c>
       <c r="I175" t="str">
-        <f t="shared" si="26"/>
-        <v>Excess</v>
+        <f t="shared" si="30"/>
+        <v>Normal</v>
       </c>
       <c r="L175" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B176" t="s">
         <v>187</v>
@@ -7498,32 +7577,32 @@
         <v>199</v>
       </c>
       <c r="E176">
-        <f t="shared" si="22"/>
-        <v>119</v>
+        <f t="shared" si="26"/>
+        <v>117</v>
       </c>
       <c r="F176">
-        <f t="shared" si="23"/>
-        <v>4</v>
+        <f t="shared" si="27"/>
+        <v>6</v>
       </c>
       <c r="G176" t="str">
-        <f t="shared" si="24"/>
-        <v>4</v>
+        <f t="shared" si="28"/>
+        <v>3</v>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="25"/>
-        <v>320</v>
+        <f t="shared" si="29"/>
+        <v>80</v>
       </c>
       <c r="I176" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>Normal</v>
       </c>
       <c r="L176" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B177" t="s">
         <v>187</v>
@@ -7535,32 +7614,32 @@
         <v>199</v>
       </c>
       <c r="E177">
-        <f t="shared" si="22"/>
-        <v>120</v>
+        <f t="shared" si="26"/>
+        <v>118</v>
       </c>
       <c r="F177">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="G177" t="str">
-        <f t="shared" si="24"/>
-        <v>4</v>
+        <f t="shared" si="28"/>
+        <v>3</v>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="25"/>
-        <v>80</v>
+        <f t="shared" si="29"/>
+        <v>125</v>
       </c>
       <c r="I177" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>Excess</v>
       </c>
       <c r="L177" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B178" t="s">
         <v>187</v>
@@ -7572,32 +7651,32 @@
         <v>199</v>
       </c>
       <c r="E178">
-        <f t="shared" si="22"/>
-        <v>121</v>
+        <f t="shared" si="26"/>
+        <v>119</v>
       </c>
       <c r="F178">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>4</v>
       </c>
       <c r="G178" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="25"/>
-        <v>125</v>
+        <f t="shared" si="29"/>
+        <v>320</v>
       </c>
       <c r="I178" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>Normal</v>
       </c>
       <c r="L178" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B179" t="s">
         <v>187</v>
@@ -7609,32 +7688,32 @@
         <v>199</v>
       </c>
       <c r="E179">
-        <f t="shared" si="22"/>
-        <v>122</v>
+        <f t="shared" si="26"/>
+        <v>120</v>
       </c>
       <c r="F179">
-        <f t="shared" si="23"/>
-        <v>2</v>
+        <f t="shared" si="27"/>
+        <v>3</v>
       </c>
       <c r="G179" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="25"/>
-        <v>125</v>
+        <f t="shared" si="29"/>
+        <v>80</v>
       </c>
       <c r="I179" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>Excess</v>
       </c>
       <c r="L179" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B180" t="s">
         <v>187</v>
@@ -7646,32 +7725,32 @@
         <v>199</v>
       </c>
       <c r="E180">
-        <f t="shared" si="22"/>
-        <v>123</v>
+        <f t="shared" si="26"/>
+        <v>121</v>
       </c>
       <c r="F180">
-        <f t="shared" si="23"/>
-        <v>6</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="G180" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="25"/>
-        <v>80</v>
+        <f t="shared" si="29"/>
+        <v>125</v>
       </c>
       <c r="I180" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>Normal</v>
       </c>
       <c r="L180" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B181" t="s">
         <v>187</v>
@@ -7683,32 +7762,32 @@
         <v>199</v>
       </c>
       <c r="E181">
-        <f t="shared" si="22"/>
-        <v>124</v>
+        <f t="shared" si="26"/>
+        <v>122</v>
       </c>
       <c r="F181">
-        <f t="shared" si="23"/>
-        <v>5</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="G181" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="25"/>
-        <v>320</v>
+        <f t="shared" si="29"/>
+        <v>125</v>
       </c>
       <c r="I181" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>Excess</v>
       </c>
-      <c r="L181" s="5">
-        <v>24</v>
+      <c r="L181" s="4">
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B182" t="s">
         <v>187</v>
@@ -7717,27 +7796,35 @@
         <v>174</v>
       </c>
       <c r="D182" t="s">
-        <v>244</v>
-      </c>
-      <c r="E182" t="s">
-        <v>211</v>
-      </c>
-      <c r="F182" t="s">
-        <v>211</v>
-      </c>
-      <c r="G182" t="s">
-        <v>211</v>
-      </c>
-      <c r="H182" t="s">
-        <v>211</v>
-      </c>
-      <c r="I182" t="s">
-        <v>211</v>
+        <v>199</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="26"/>
+        <v>123</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="H182" t="str">
+        <f t="shared" si="29"/>
+        <v>80</v>
+      </c>
+      <c r="I182" t="str">
+        <f t="shared" si="30"/>
+        <v>Normal</v>
+      </c>
+      <c r="L182" s="4">
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B183" t="s">
         <v>187</v>
@@ -7746,27 +7833,35 @@
         <v>174</v>
       </c>
       <c r="D183" t="s">
-        <v>245</v>
-      </c>
-      <c r="E183" t="s">
-        <v>211</v>
-      </c>
-      <c r="F183" t="s">
-        <v>211</v>
-      </c>
-      <c r="G183" t="s">
-        <v>211</v>
-      </c>
-      <c r="H183" t="s">
-        <v>211</v>
-      </c>
-      <c r="I183" t="s">
-        <v>211</v>
+        <v>199</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="26"/>
+        <v>124</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="H183" t="str">
+        <f t="shared" si="29"/>
+        <v>320</v>
+      </c>
+      <c r="I183" t="str">
+        <f t="shared" si="30"/>
+        <v>Excess</v>
+      </c>
+      <c r="L183" s="5">
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B184" t="s">
         <v>187</v>
@@ -7775,7 +7870,7 @@
         <v>174</v>
       </c>
       <c r="D184" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E184" t="s">
         <v>211</v>
@@ -7790,6 +7885,64 @@
         <v>211</v>
       </c>
       <c r="I184" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>231</v>
+      </c>
+      <c r="B185" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" t="s">
+        <v>174</v>
+      </c>
+      <c r="D185" t="s">
+        <v>245</v>
+      </c>
+      <c r="E185" t="s">
+        <v>211</v>
+      </c>
+      <c r="F185" t="s">
+        <v>211</v>
+      </c>
+      <c r="G185" t="s">
+        <v>211</v>
+      </c>
+      <c r="H185" t="s">
+        <v>211</v>
+      </c>
+      <c r="I185" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>232</v>
+      </c>
+      <c r="B186" t="s">
+        <v>187</v>
+      </c>
+      <c r="C186" t="s">
+        <v>174</v>
+      </c>
+      <c r="D186" t="s">
+        <v>246</v>
+      </c>
+      <c r="E186" t="s">
+        <v>211</v>
+      </c>
+      <c r="F186" t="s">
+        <v>211</v>
+      </c>
+      <c r="G186" t="s">
+        <v>211</v>
+      </c>
+      <c r="H186" t="s">
+        <v>211</v>
+      </c>
+      <c r="I186" t="s">
         <v>211</v>
       </c>
     </row>
